--- a/outputs-r202/train-g__UBA2856.xlsx
+++ b/outputs-r202/train-g__UBA2856.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="565">
   <si>
     <t>Row</t>
   </si>
@@ -1388,6 +1389,330 @@
   </si>
   <si>
     <t>GB_GCA_902803155.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002350685.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902765725.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002371345.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002371345.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372585.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372585.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372585.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002372585.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797605.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797605.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002392705.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394165.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394165.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394165.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394165.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394165.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002482005.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902775305.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902775305.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801455.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313765.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768775.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768775.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902768775.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002350005.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002350005.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314065.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314065.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781385.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003448595.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003448595.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902757265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793975.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800235.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321365.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321365.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321365.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321365.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760025.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760025.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760025.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760025.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902760025.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555005.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555005.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555005.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555005.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900555005.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902767335.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902767335.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902767335.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902767335.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902767335.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777405.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777405.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779575.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779575.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902779575.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902780665.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902780665.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781455.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781455.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785635.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785635.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902785635.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797665.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797665.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797665.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797665.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902797665.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799015.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799015.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799015.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799015.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002391125.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902757515.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764135.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764655.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902764655.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902799035.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801515.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801515.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801515.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801515.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801515.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803065.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803065.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803065.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803155.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803155.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803155.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902803155.1_6.fasta</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1733,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1424,11 +1749,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1438,6 +1765,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -35159,4 +35488,8433 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y109"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="23.140625" customWidth="true"/>
+    <col min="9" max="9" width="23.140625" customWidth="true"/>
+    <col min="10" max="10" width="23.140625" customWidth="true"/>
+    <col min="11" max="11" width="23.140625" customWidth="true"/>
+    <col min="12" max="12" width="23.140625" customWidth="true"/>
+    <col min="13" max="13" width="23.140625" customWidth="true"/>
+    <col min="14" max="14" width="23.140625" customWidth="true"/>
+    <col min="15" max="15" width="23.140625" customWidth="true"/>
+    <col min="16" max="16" width="23.140625" customWidth="true"/>
+    <col min="17" max="17" width="23.140625" customWidth="true"/>
+    <col min="18" max="18" width="23.140625" customWidth="true"/>
+    <col min="19" max="19" width="23.140625" customWidth="true"/>
+    <col min="20" max="20" width="23.140625" customWidth="true"/>
+    <col min="21" max="21" width="23.140625" customWidth="true"/>
+    <col min="22" max="22" width="23.140625" customWidth="true"/>
+    <col min="23" max="23" width="23.140625" customWidth="true"/>
+    <col min="24" max="24" width="10.28515625" customWidth="true"/>
+    <col min="25" max="25" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2">
+        <v>0.99683428566697152</v>
+      </c>
+      <c r="C2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="G2">
+        <v>2.6586970883717214e-09</v>
+      </c>
+      <c r="H2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="J2">
+        <v>0.0031220245490695552</v>
+      </c>
+      <c r="K2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="L2">
+        <v>3.7700132813584029e-08</v>
+      </c>
+      <c r="M2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="N2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="O2">
+        <v>5.8421755268044578e-06</v>
+      </c>
+      <c r="P2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="S2">
+        <v>3.6094728534947197e-05</v>
+      </c>
+      <c r="T2">
+        <v>1.7125207344204243e-06</v>
+      </c>
+      <c r="U2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="V2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="W2">
+        <v>2.2201295272074106e-14</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3">
+        <v>0.96999417096573104</v>
+      </c>
+      <c r="C3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="G3">
+        <v>8.0114801819884091e-09</v>
+      </c>
+      <c r="H3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="J3">
+        <v>0.029986213938013932</v>
+      </c>
+      <c r="K3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="L3">
+        <v>9.28724091208424e-13</v>
+      </c>
+      <c r="M3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="O3">
+        <v>6.0325748710837401e-07</v>
+      </c>
+      <c r="P3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="S3">
+        <v>1.8711184801087648e-05</v>
+      </c>
+      <c r="T3">
+        <v>2.9264122509177089e-07</v>
+      </c>
+      <c r="U3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="V3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="W3">
+        <v>2.2201260077935396e-14</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4">
+        <v>0.99974741616578711</v>
+      </c>
+      <c r="C4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="G4">
+        <v>1.1431689727831264e-06</v>
+      </c>
+      <c r="H4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="J4">
+        <v>5.9260547015399497e-08</v>
+      </c>
+      <c r="K4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="L4">
+        <v>7.7673548046514628e-10</v>
+      </c>
+      <c r="M4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="N4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="O4">
+        <v>0.00024110807562697489</v>
+      </c>
+      <c r="P4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="S4">
+        <v>9.1974962587971516e-07</v>
+      </c>
+      <c r="T4">
+        <v>9.352802371504502e-06</v>
+      </c>
+      <c r="U4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="V4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="W4">
+        <v>2.2204205751775131e-14</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5">
+        <v>0.99969424577465515</v>
+      </c>
+      <c r="C5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="G5">
+        <v>1.7954572018589049e-07</v>
+      </c>
+      <c r="H5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="J5">
+        <v>0.00027568445100161843</v>
+      </c>
+      <c r="K5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="L5">
+        <v>2.035841683377446e-10</v>
+      </c>
+      <c r="M5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="N5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="O5">
+        <v>6.6426268291658833e-06</v>
+      </c>
+      <c r="P5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="R5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="S5">
+        <v>2.0482066860114963e-05</v>
+      </c>
+      <c r="T5">
+        <v>2.7653310164970651e-06</v>
+      </c>
+      <c r="U5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="V5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="W5">
+        <v>2.2204152175901138e-14</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B6">
+        <v>0.99311925526258604</v>
+      </c>
+      <c r="C6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="F6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="G6">
+        <v>0.0068059604873120039</v>
+      </c>
+      <c r="H6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="J6">
+        <v>8.0413603496404103e-09</v>
+      </c>
+      <c r="K6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="L6">
+        <v>4.4497620946314576e-09</v>
+      </c>
+      <c r="M6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="N6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="O6">
+        <v>5.3587277215236689e-06</v>
+      </c>
+      <c r="P6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="S6">
+        <v>6.6520102012320591e-07</v>
+      </c>
+      <c r="T6">
+        <v>6.8747829904582472e-05</v>
+      </c>
+      <c r="U6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="V6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="W6">
+        <v>2.2201282171618648e-14</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7">
+        <v>0.22001348792665937</v>
+      </c>
+      <c r="C7">
+        <v>3.2026389639943801e-08</v>
+      </c>
+      <c r="D7">
+        <v>3.2026389639943894e-08</v>
+      </c>
+      <c r="E7">
+        <v>3.2026389639943894e-08</v>
+      </c>
+      <c r="F7">
+        <v>3.2026389639943894e-08</v>
+      </c>
+      <c r="G7">
+        <v>0.078964162077240274</v>
+      </c>
+      <c r="H7">
+        <v>3.2026389639943913e-08</v>
+      </c>
+      <c r="I7">
+        <v>3.2026389639943801e-08</v>
+      </c>
+      <c r="J7">
+        <v>0.20560380103691639</v>
+      </c>
+      <c r="K7">
+        <v>3.2026389639943894e-08</v>
+      </c>
+      <c r="L7">
+        <v>0.00017405512121637258</v>
+      </c>
+      <c r="M7">
+        <v>3.2026389639943834e-08</v>
+      </c>
+      <c r="N7">
+        <v>3.2026389639943781e-08</v>
+      </c>
+      <c r="O7">
+        <v>0.16689001141746435</v>
+      </c>
+      <c r="P7">
+        <v>3.202638963994619e-08</v>
+      </c>
+      <c r="Q7">
+        <v>3.2026389639946044e-08</v>
+      </c>
+      <c r="R7">
+        <v>3.202638963994619e-08</v>
+      </c>
+      <c r="S7">
+        <v>0.17133384602239413</v>
+      </c>
+      <c r="T7">
+        <v>0.15702015600226479</v>
+      </c>
+      <c r="U7">
+        <v>3.202638963994613e-08</v>
+      </c>
+      <c r="V7">
+        <v>3.202638963994613e-08</v>
+      </c>
+      <c r="W7">
+        <v>3.2026389639946183e-08</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8">
+        <v>0.99975409997947839</v>
+      </c>
+      <c r="C8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="D8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="G8">
+        <v>9.3944371050482502e-10</v>
+      </c>
+      <c r="H8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="J8">
+        <v>3.1275377838635411e-07</v>
+      </c>
+      <c r="K8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="L8">
+        <v>1.1022946102414281e-06</v>
+      </c>
+      <c r="M8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="N8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="O8">
+        <v>9.8771765575598948e-05</v>
+      </c>
+      <c r="P8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="R8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="S8">
+        <v>3.7215666540566212e-05</v>
+      </c>
+      <c r="T8">
+        <v>0.00010849660024008357</v>
+      </c>
+      <c r="U8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="V8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="W8">
+        <v>2.2204212487773374e-14</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.98819746371329265</v>
+      </c>
+      <c r="D9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="E9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="G9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="J9">
+        <v>0.0089703543175346321</v>
+      </c>
+      <c r="K9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="L9">
+        <v>2.1899057449923326e-06</v>
+      </c>
+      <c r="M9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="N9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="O9">
+        <v>1.0158499950592418e-05</v>
+      </c>
+      <c r="P9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="S9">
+        <v>0.0028183416840759298</v>
+      </c>
+      <c r="T9">
+        <v>1.4918790460222525e-06</v>
+      </c>
+      <c r="U9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="V9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="W9">
+        <v>2.2202529728643705e-14</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="C10">
+        <v>0.24336657675030313</v>
+      </c>
+      <c r="D10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="E10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="F10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="G10">
+        <v>8.8215816558899575e-12</v>
+      </c>
+      <c r="H10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="I10">
+        <v>2.3605983037000454e-13</v>
+      </c>
+      <c r="J10">
+        <v>0.41302184125824709</v>
+      </c>
+      <c r="K10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="L10">
+        <v>1.0265793362604015e-06</v>
+      </c>
+      <c r="M10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="N10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="O10">
+        <v>0.00082784962424629427</v>
+      </c>
+      <c r="P10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="Q10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="R10">
+        <v>2.3605983037000464e-13</v>
+      </c>
+      <c r="S10">
+        <v>0.14419624600132303</v>
+      </c>
+      <c r="T10">
+        <v>2.4725359324359768e-05</v>
+      </c>
+      <c r="U10">
+        <v>0.1985617344150935</v>
+      </c>
+      <c r="V10">
+        <v>2.3605983037000096e-13</v>
+      </c>
+      <c r="W10">
+        <v>2.3605983037000096e-13</v>
+      </c>
+      <c r="X10">
+        <v>9</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.97323157248481629</v>
+      </c>
+      <c r="D11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="G11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="J11">
+        <v>0.025747025626920123</v>
+      </c>
+      <c r="K11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="L11">
+        <v>3.3878207473572124e-06</v>
+      </c>
+      <c r="M11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="N11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="O11">
+        <v>8.4885355683912314e-06</v>
+      </c>
+      <c r="P11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="Q11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="R11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="S11">
+        <v>0.0010086262824303899</v>
+      </c>
+      <c r="T11">
+        <v>8.9924916238859673e-07</v>
+      </c>
+      <c r="U11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="V11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="W11">
+        <v>2.2200548933993062e-14</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.9954320987423696</v>
+      </c>
+      <c r="D12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="G12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="J12">
+        <v>0.0030291435037437665</v>
+      </c>
+      <c r="K12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="L12">
+        <v>2.67645231756785e-05</v>
+      </c>
+      <c r="M12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="N12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="O12">
+        <v>1.3569186526896498e-05</v>
+      </c>
+      <c r="P12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="R12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="S12">
+        <v>0.0014934461523202647</v>
+      </c>
+      <c r="T12">
+        <v>4.9778915085636669e-06</v>
+      </c>
+      <c r="U12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="V12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="W12">
+        <v>2.2201621030525311e-14</v>
+      </c>
+      <c r="X12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.99357343714901702</v>
+      </c>
+      <c r="D13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="J13">
+        <v>0.0054035018131538583</v>
+      </c>
+      <c r="K13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="L13">
+        <v>2.2823357872518798e-05</v>
+      </c>
+      <c r="M13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="N13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="O13">
+        <v>1.4324307125426769e-05</v>
+      </c>
+      <c r="P13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="R13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="S13">
+        <v>0.00098161024320503267</v>
+      </c>
+      <c r="T13">
+        <v>4.3031292709063016e-06</v>
+      </c>
+      <c r="U13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="V13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="W13">
+        <v>2.2201722429258329e-14</v>
+      </c>
+      <c r="X13">
+        <v>2</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="C14">
+        <v>0.99675003133219575</v>
+      </c>
+      <c r="D14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="E14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="G14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="J14">
+        <v>0.0021202234200727432</v>
+      </c>
+      <c r="K14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="L14">
+        <v>0.00065177305289887552</v>
+      </c>
+      <c r="M14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="N14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="O14">
+        <v>3.3267243727573719e-05</v>
+      </c>
+      <c r="P14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="Q14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="R14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="S14">
+        <v>0.00043158760301628099</v>
+      </c>
+      <c r="T14">
+        <v>1.3117347733740213e-05</v>
+      </c>
+      <c r="U14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="V14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="W14">
+        <v>2.2201222082127047e-14</v>
+      </c>
+      <c r="X14">
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.99367638950849879</v>
+      </c>
+      <c r="D15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="E15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="J15">
+        <v>0.0020339178684252454</v>
+      </c>
+      <c r="K15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="L15">
+        <v>8.4472600860005576e-07</v>
+      </c>
+      <c r="M15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="N15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.1769705936227065e-05</v>
+      </c>
+      <c r="P15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="S15">
+        <v>0.0042585841587431585</v>
+      </c>
+      <c r="T15">
+        <v>8.4940320327059762e-06</v>
+      </c>
+      <c r="U15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="V15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="W15">
+        <v>2.2202034094106785e-14</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="C16">
+        <v>0.98777875522575809</v>
+      </c>
+      <c r="D16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="E16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="F16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="G16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="J16">
+        <v>0.0088492474858293743</v>
+      </c>
+      <c r="K16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="L16">
+        <v>6.53440864627605e-07</v>
+      </c>
+      <c r="M16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="N16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="O16">
+        <v>1.4149603304446734e-05</v>
+      </c>
+      <c r="P16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="Q16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="R16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="S16">
+        <v>0.00335440640637069</v>
+      </c>
+      <c r="T16">
+        <v>2.7878375174719704e-06</v>
+      </c>
+      <c r="U16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="V16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="W16">
+        <v>2.2202717718739926e-14</v>
+      </c>
+      <c r="X16">
+        <v>2</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.98338490264286205</v>
+      </c>
+      <c r="E17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="G17">
+        <v>3.3637216625700219e-10</v>
+      </c>
+      <c r="H17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="J17">
+        <v>0.0004291191850731919</v>
+      </c>
+      <c r="K17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="L17">
+        <v>5.912678156989022e-06</v>
+      </c>
+      <c r="M17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="N17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="O17">
+        <v>0.014559586357944189</v>
+      </c>
+      <c r="P17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="S17">
+        <v>0.0015601620519065972</v>
+      </c>
+      <c r="T17">
+        <v>6.0316747351882931e-05</v>
+      </c>
+      <c r="U17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="V17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="W17">
+        <v>2.2201803227432512e-14</v>
+      </c>
+      <c r="X17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99493399130200488</v>
+      </c>
+      <c r="E18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="F18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="G18">
+        <v>1.7720636483116045e-08</v>
+      </c>
+      <c r="H18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="J18">
+        <v>0.00040687786577012854</v>
+      </c>
+      <c r="K18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="L18">
+        <v>0.00028483599776410034</v>
+      </c>
+      <c r="M18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="N18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="O18">
+        <v>0.00075391832261539806</v>
+      </c>
+      <c r="P18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="S18">
+        <v>0.0033515272947673628</v>
+      </c>
+      <c r="T18">
+        <v>0.00026883149610861369</v>
+      </c>
+      <c r="U18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="V18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="W18">
+        <v>2.2201857389441901e-14</v>
+      </c>
+      <c r="X18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99013511467952109</v>
+      </c>
+      <c r="E19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="F19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="G19">
+        <v>1.1423496819294109e-11</v>
+      </c>
+      <c r="H19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="J19">
+        <v>0.0023570412733603455</v>
+      </c>
+      <c r="K19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="L19">
+        <v>4.6923894848960297e-07</v>
+      </c>
+      <c r="M19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="N19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="O19">
+        <v>0.005261429866093543</v>
+      </c>
+      <c r="P19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="Q19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="S19">
+        <v>0.0017675168684297233</v>
+      </c>
+      <c r="T19">
+        <v>0.00047842806189044365</v>
+      </c>
+      <c r="U19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="V19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="W19">
+        <v>2.220303532753238e-14</v>
+      </c>
+      <c r="X19">
+        <v>3</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.98495606151892345</v>
+      </c>
+      <c r="E20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="F20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="G20">
+        <v>3.9421660670212086e-11</v>
+      </c>
+      <c r="H20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="J20">
+        <v>0.00056859543442180427</v>
+      </c>
+      <c r="K20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="L20">
+        <v>4.5285277952981877e-05</v>
+      </c>
+      <c r="M20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="N20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="O20">
+        <v>0.013232835140041654</v>
+      </c>
+      <c r="P20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="Q20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="S20">
+        <v>0.00099609675925097256</v>
+      </c>
+      <c r="T20">
+        <v>0.00020112582965453273</v>
+      </c>
+      <c r="U20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="V20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="W20">
+        <v>2.2201790892790041e-14</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.98311066017679671</v>
+      </c>
+      <c r="E21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="F21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="G21">
+        <v>9.0395868046228866e-09</v>
+      </c>
+      <c r="H21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="J21">
+        <v>0.00054338490231718706</v>
+      </c>
+      <c r="K21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="L21">
+        <v>3.1666266123577722e-05</v>
+      </c>
+      <c r="M21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="N21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="O21">
+        <v>0.012417567496547242</v>
+      </c>
+      <c r="P21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="Q21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="R21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="S21">
+        <v>0.003863921972182481</v>
+      </c>
+      <c r="T21">
+        <v>3.2790146112788849e-05</v>
+      </c>
+      <c r="U21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="V21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="W21">
+        <v>2.2202882682547306e-14</v>
+      </c>
+      <c r="X21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.99354807543514778</v>
+      </c>
+      <c r="E22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="F22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2465214189543866e-10</v>
+      </c>
+      <c r="H22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="J22">
+        <v>0.0011348685975865133</v>
+      </c>
+      <c r="K22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="L22">
+        <v>6.4576519811990597e-06</v>
+      </c>
+      <c r="M22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="N22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="O22">
+        <v>0.0031406680204053312</v>
+      </c>
+      <c r="P22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="Q22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="R22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="S22">
+        <v>0.0014833593602825519</v>
+      </c>
+      <c r="T22">
+        <v>0.00068657070961127421</v>
+      </c>
+      <c r="U22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="V22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="W22">
+        <v>2.2202475420488275e-14</v>
+      </c>
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="D23">
+        <v>0.9937100617479212</v>
+      </c>
+      <c r="E23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="F23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="G23">
+        <v>1.2046557949626541e-09</v>
+      </c>
+      <c r="H23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="J23">
+        <v>0.0009490986555427672</v>
+      </c>
+      <c r="K23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="L23">
+        <v>7.6949444943027732e-06</v>
+      </c>
+      <c r="M23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="N23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="O23">
+        <v>0.0028738470182108921</v>
+      </c>
+      <c r="P23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="Q23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="R23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="S23">
+        <v>0.0019320608911633874</v>
+      </c>
+      <c r="T23">
+        <v>0.00052723553767850743</v>
+      </c>
+      <c r="U23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="V23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="W23">
+        <v>2.2202427525751614e-14</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.99653086420210302</v>
+      </c>
+      <c r="F24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2509109897156016e-12</v>
+      </c>
+      <c r="H24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="J24">
+        <v>9.0623114177688011e-10</v>
+      </c>
+      <c r="K24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="L24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="M24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="N24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="O24">
+        <v>4.2101012231606545e-05</v>
+      </c>
+      <c r="P24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="Q24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="R24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="S24">
+        <v>0.00030028494056320138</v>
+      </c>
+      <c r="T24">
+        <v>0.003126748936264888</v>
+      </c>
+      <c r="U24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="V24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="W24">
+        <v>2.2201243546358667e-14</v>
+      </c>
+      <c r="X24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.95475178854724019</v>
+      </c>
+      <c r="F25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="G25">
+        <v>3.722550961039448e-13</v>
+      </c>
+      <c r="H25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="J25">
+        <v>6.2519961196364434e-13</v>
+      </c>
+      <c r="K25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="L25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="M25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="N25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="O25">
+        <v>1.0676952321490715e-05</v>
+      </c>
+      <c r="P25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="R25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="S25">
+        <v>3.9290002181657292e-05</v>
+      </c>
+      <c r="T25">
+        <v>0.045198244496903947</v>
+      </c>
+      <c r="U25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="V25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="W25">
+        <v>2.2200831863596109e-14</v>
+      </c>
+      <c r="X25">
+        <v>4</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.99610234297141487</v>
+      </c>
+      <c r="F26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="G26">
+        <v>4.6589708705418232e-12</v>
+      </c>
+      <c r="H26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="J26">
+        <v>1.3493707639072291e-09</v>
+      </c>
+      <c r="K26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="L26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="M26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="N26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="O26">
+        <v>2.1831969144177214e-05</v>
+      </c>
+      <c r="P26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="Q26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="R26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="S26">
+        <v>0.0006376868292392576</v>
+      </c>
+      <c r="T26">
+        <v>0.0032381368758166774</v>
+      </c>
+      <c r="U26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="V26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="W26">
+        <v>2.2201338344012211e-14</v>
+      </c>
+      <c r="X26">
+        <v>4</v>
+      </c>
+      <c r="Y26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.9525914492958234</v>
+      </c>
+      <c r="F27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="J27">
+        <v>3.0019724228582089e-13</v>
+      </c>
+      <c r="K27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="L27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="M27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="N27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="O27">
+        <v>1.7194798385994132e-05</v>
+      </c>
+      <c r="P27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="Q27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="R27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="S27">
+        <v>4.3723915057936448e-05</v>
+      </c>
+      <c r="T27">
+        <v>0.047347631990055011</v>
+      </c>
+      <c r="U27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="V27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="W27">
+        <v>2.220068493408128e-14</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="E28">
+        <v>0.9937381566497131</v>
+      </c>
+      <c r="F28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="G28">
+        <v>1.3092121804463567e-11</v>
+      </c>
+      <c r="H28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="J28">
+        <v>4.345840741266573e-10</v>
+      </c>
+      <c r="K28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="L28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="M28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="N28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="O28">
+        <v>1.5049841510322697e-05</v>
+      </c>
+      <c r="P28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="Q28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="R28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="S28">
+        <v>0.00052792584893912716</v>
+      </c>
+      <c r="T28">
+        <v>0.005718867211806037</v>
+      </c>
+      <c r="U28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="V28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="W28">
+        <v>2.2201507404839838e-14</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.94180898752895248</v>
+      </c>
+      <c r="G29">
+        <v>8.6415945053005356e-09</v>
+      </c>
+      <c r="H29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="J29">
+        <v>0.058020767184403112</v>
+      </c>
+      <c r="K29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="L29">
+        <v>3.9460260756484677e-10</v>
+      </c>
+      <c r="M29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="N29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="O29">
+        <v>3.1803380728882896e-05</v>
+      </c>
+      <c r="P29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="S29">
+        <v>0.00013723470350458265</v>
+      </c>
+      <c r="T29">
+        <v>1.1981658809812834e-06</v>
+      </c>
+      <c r="U29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="V29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="W29">
+        <v>2.2199675655084934e-14</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.98238163132888534</v>
+      </c>
+      <c r="G30">
+        <v>8.3139592714350323e-08</v>
+      </c>
+      <c r="H30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="J30">
+        <v>0.017341193179235069</v>
+      </c>
+      <c r="K30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="L30">
+        <v>3.3518208768978902e-09</v>
+      </c>
+      <c r="M30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="N30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="O30">
+        <v>4.8245524452016784e-05</v>
+      </c>
+      <c r="P30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="S30">
+        <v>0.00022703670771740951</v>
+      </c>
+      <c r="T30">
+        <v>1.8067679634878778e-06</v>
+      </c>
+      <c r="U30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="V30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="W30">
+        <v>2.2201128835464322e-14</v>
+      </c>
+      <c r="X30">
+        <v>5</v>
+      </c>
+      <c r="Y30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.90878397899142649</v>
+      </c>
+      <c r="G31">
+        <v>1.9799550371763255e-06</v>
+      </c>
+      <c r="H31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="J31">
+        <v>0.07597117812246626</v>
+      </c>
+      <c r="K31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="L31">
+        <v>2.0713327887322886e-09</v>
+      </c>
+      <c r="M31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="N31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="O31">
+        <v>0.00022874383081010531</v>
+      </c>
+      <c r="P31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="S31">
+        <v>0.00070475426840843679</v>
+      </c>
+      <c r="T31">
+        <v>1.0130444898631337e-05</v>
+      </c>
+      <c r="U31">
+        <v>0.014299232315309178</v>
+      </c>
+      <c r="V31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="W31">
+        <v>2.2205045689099586e-14</v>
+      </c>
+      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.98177461798570786</v>
+      </c>
+      <c r="G32">
+        <v>7.6714300112748802e-11</v>
+      </c>
+      <c r="H32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="J32">
+        <v>0.018156684582138215</v>
+      </c>
+      <c r="K32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="L32">
+        <v>3.9503289568074342e-11</v>
+      </c>
+      <c r="M32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="N32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="O32">
+        <v>6.482768642754362e-06</v>
+      </c>
+      <c r="P32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="Q32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="R32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="S32">
+        <v>6.1979435760812685e-05</v>
+      </c>
+      <c r="T32">
+        <v>2.3511119948126281e-07</v>
+      </c>
+      <c r="U32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="V32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="W32">
+        <v>2.2201227279564652e-14</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.96795884544368516</v>
+      </c>
+      <c r="G33">
+        <v>2.9194001671337207e-11</v>
+      </c>
+      <c r="H33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="I33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="J33">
+        <v>0.031837574377474379</v>
+      </c>
+      <c r="K33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="L33">
+        <v>3.7974641768696931e-10</v>
+      </c>
+      <c r="M33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="N33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="O33">
+        <v>3.7200040281996903e-06</v>
+      </c>
+      <c r="P33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="Q33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="R33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="S33">
+        <v>0.00019939003855011378</v>
+      </c>
+      <c r="T33">
+        <v>4.6972698873591561e-07</v>
+      </c>
+      <c r="U33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="V33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="W33">
+        <v>2.2200558169830892e-14</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.99054405856804817</v>
+      </c>
+      <c r="G34">
+        <v>7.7620284413079095e-13</v>
+      </c>
+      <c r="H34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="J34">
+        <v>0.0092084927484138539</v>
+      </c>
+      <c r="K34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="L34">
+        <v>9.3681240717816942e-11</v>
+      </c>
+      <c r="M34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="N34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="O34">
+        <v>9.1678478214141977e-06</v>
+      </c>
+      <c r="P34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="S34">
+        <v>0.00023759264035153038</v>
+      </c>
+      <c r="T34">
+        <v>6.8810057464412609e-07</v>
+      </c>
+      <c r="U34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="V34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="W34">
+        <v>2.2201378748679859e-14</v>
+      </c>
+      <c r="X34">
+        <v>5</v>
+      </c>
+      <c r="Y34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="C35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="D35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="E35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="F35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="G35">
+        <v>0.53787642468832675</v>
+      </c>
+      <c r="H35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="I35">
+        <v>3.9354078895452077e-14</v>
+      </c>
+      <c r="J35">
+        <v>0.033248140213225773</v>
+      </c>
+      <c r="K35">
+        <v>3.935407889545207e-14</v>
+      </c>
+      <c r="L35">
+        <v>0.003427968499565772</v>
+      </c>
+      <c r="M35">
+        <v>3.935407889545207e-14</v>
+      </c>
+      <c r="N35">
+        <v>3.935407889545207e-14</v>
+      </c>
+      <c r="O35">
+        <v>0.0044970706615814829</v>
+      </c>
+      <c r="P35">
+        <v>3.9354078895452102e-14</v>
+      </c>
+      <c r="Q35">
+        <v>3.9354078895452102e-14</v>
+      </c>
+      <c r="R35">
+        <v>3.9354078895452102e-14</v>
+      </c>
+      <c r="S35">
+        <v>0.00054589234971733265</v>
+      </c>
+      <c r="T35">
+        <v>0.42040450358695353</v>
+      </c>
+      <c r="U35">
+        <v>3.9354078895452064e-14</v>
+      </c>
+      <c r="V35">
+        <v>3.9354078895452064e-14</v>
+      </c>
+      <c r="W35">
+        <v>3.9354078895452064e-14</v>
+      </c>
+      <c r="X35">
+        <v>6</v>
+      </c>
+      <c r="Y35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.75139970677906642</v>
+      </c>
+      <c r="H36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="I36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="J36">
+        <v>0.1746992409739925</v>
+      </c>
+      <c r="K36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="L36">
+        <v>0.0034288059259776813</v>
+      </c>
+      <c r="M36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="N36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="O36">
+        <v>0.00089652112977213071</v>
+      </c>
+      <c r="P36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="Q36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="R36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="S36">
+        <v>3.7173395460652653e-05</v>
+      </c>
+      <c r="T36">
+        <v>0.069538551795374798</v>
+      </c>
+      <c r="U36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="V36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="W36">
+        <v>2.2238827596323342e-14</v>
+      </c>
+      <c r="X36">
+        <v>6</v>
+      </c>
+      <c r="Y36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B37">
+        <v>1.1021851755230203e-13</v>
+      </c>
+      <c r="C37">
+        <v>1.1021851755230203e-13</v>
+      </c>
+      <c r="D37">
+        <v>1.1021851755230203e-13</v>
+      </c>
+      <c r="E37">
+        <v>1.1021851755230211e-13</v>
+      </c>
+      <c r="F37">
+        <v>1.1021851755230211e-13</v>
+      </c>
+      <c r="G37">
+        <v>0.44337901358576431</v>
+      </c>
+      <c r="H37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="I37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="J37">
+        <v>0.24266566371877119</v>
+      </c>
+      <c r="K37">
+        <v>1.1021851755230195e-13</v>
+      </c>
+      <c r="L37">
+        <v>4.3066003407496715e-05</v>
+      </c>
+      <c r="M37">
+        <v>1.1021851755230207e-13</v>
+      </c>
+      <c r="N37">
+        <v>1.1021851755230207e-13</v>
+      </c>
+      <c r="O37">
+        <v>0.0098438569292071242</v>
+      </c>
+      <c r="P37">
+        <v>1.1021851755230207e-13</v>
+      </c>
+      <c r="Q37">
+        <v>1.1021851755230195e-13</v>
+      </c>
+      <c r="R37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="S37">
+        <v>0.043413754520971189</v>
+      </c>
+      <c r="T37">
+        <v>0.26065464524011517</v>
+      </c>
+      <c r="U37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="V37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="W37">
+        <v>1.1021851755230198e-13</v>
+      </c>
+      <c r="X37">
+        <v>6</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="C38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="G38">
+        <v>1.6456948021904377e-06</v>
+      </c>
+      <c r="H38">
+        <v>0.99840519765719216</v>
+      </c>
+      <c r="I38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="J38">
+        <v>3.7188048768945998e-05</v>
+      </c>
+      <c r="K38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="L38">
+        <v>9.3771351909868751e-14</v>
+      </c>
+      <c r="M38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="N38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="O38">
+        <v>0.0015368554737195202</v>
+      </c>
+      <c r="P38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="Q38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="R38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="S38">
+        <v>1.8971062528919361e-05</v>
+      </c>
+      <c r="T38">
+        <v>1.4206256158260955e-07</v>
+      </c>
+      <c r="U38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="V38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="W38">
+        <v>2.2202858463063717e-14</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B39">
+        <v>4.4411244380143898e-10</v>
+      </c>
+      <c r="C39">
+        <v>4.4411244380143898e-10</v>
+      </c>
+      <c r="D39">
+        <v>4.4411244380143898e-10</v>
+      </c>
+      <c r="E39">
+        <v>4.4411244380143738e-10</v>
+      </c>
+      <c r="F39">
+        <v>4.4411244380143836e-10</v>
+      </c>
+      <c r="G39">
+        <v>0.00073529896849623168</v>
+      </c>
+      <c r="H39">
+        <v>0.24729964175027971</v>
+      </c>
+      <c r="I39">
+        <v>4.4411244380143919e-10</v>
+      </c>
+      <c r="J39">
+        <v>0.189828018712383</v>
+      </c>
+      <c r="K39">
+        <v>4.4411244380143795e-10</v>
+      </c>
+      <c r="L39">
+        <v>4.4411244380157149e-10</v>
+      </c>
+      <c r="M39">
+        <v>4.4411244380143795e-10</v>
+      </c>
+      <c r="N39">
+        <v>4.4411244380143795e-10</v>
+      </c>
+      <c r="O39">
+        <v>0.18962860004701831</v>
+      </c>
+      <c r="P39">
+        <v>4.4411244380143795e-10</v>
+      </c>
+      <c r="Q39">
+        <v>4.4411244380143795e-10</v>
+      </c>
+      <c r="R39">
+        <v>4.4411244380143878e-10</v>
+      </c>
+      <c r="S39">
+        <v>0.13974792140093942</v>
+      </c>
+      <c r="T39">
+        <v>0.0091500799138526517</v>
+      </c>
+      <c r="U39">
+        <v>0.22361043254534405</v>
+      </c>
+      <c r="V39">
+        <v>4.4411244380143831e-10</v>
+      </c>
+      <c r="W39">
+        <v>4.4411244380143831e-10</v>
+      </c>
+      <c r="X39">
+        <v>7</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="F40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="G40">
+        <v>0.00010798775704226639</v>
+      </c>
+      <c r="H40">
+        <v>0.99793633584782115</v>
+      </c>
+      <c r="I40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="J40">
+        <v>2.3292010730149167e-06</v>
+      </c>
+      <c r="K40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="L40">
+        <v>9.9147136316873722e-14</v>
+      </c>
+      <c r="M40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="N40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="O40">
+        <v>0.0019428308078685867</v>
+      </c>
+      <c r="P40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="Q40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="R40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="S40">
+        <v>1.0378206420938911e-05</v>
+      </c>
+      <c r="T40">
+        <v>1.3817934166267305e-07</v>
+      </c>
+      <c r="U40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="V40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="W40">
+        <v>2.2202390365641821e-14</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="D41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="E41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="F41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="G41">
+        <v>9.0964940071001978e-05</v>
+      </c>
+      <c r="H41">
+        <v>0.99792786622038043</v>
+      </c>
+      <c r="I41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="J41">
+        <v>1.8988616735262922e-06</v>
+      </c>
+      <c r="K41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="L41">
+        <v>1.5158974972577637e-13</v>
+      </c>
+      <c r="M41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="N41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="O41">
+        <v>0.0019714326028871026</v>
+      </c>
+      <c r="P41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="Q41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="R41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="S41">
+        <v>7.6165455843703762e-06</v>
+      </c>
+      <c r="T41">
+        <v>2.2082891874130782e-07</v>
+      </c>
+      <c r="U41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="V41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="W41">
+        <v>2.2202381921524997e-14</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="G42">
+        <v>1.4099839375742646e-09</v>
+      </c>
+      <c r="H42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="I42">
+        <v>0.99886088818422381</v>
+      </c>
+      <c r="J42">
+        <v>0.0011383835431722773</v>
+      </c>
+      <c r="K42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="L42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="M42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="N42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="S42">
+        <v>7.2685509433706747e-07</v>
+      </c>
+      <c r="T42">
+        <v>7.1480252701345373e-12</v>
+      </c>
+      <c r="U42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="V42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="W42">
+        <v>2.2203314668678444e-14</v>
+      </c>
+      <c r="X42">
+        <v>8</v>
+      </c>
+      <c r="Y42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="E43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="G43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="H43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="I43">
+        <v>0.99998669991683864</v>
+      </c>
+      <c r="J43">
+        <v>1.3240069644355712e-05</v>
+      </c>
+      <c r="K43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="L43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="M43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="N43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="O43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="P43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="Q43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="R43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="S43">
+        <v>5.9794749767951996e-08</v>
+      </c>
+      <c r="T43">
+        <v>2.1836742314374461e-10</v>
+      </c>
+      <c r="U43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="V43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="W43">
+        <v>2.2204447069341432e-14</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="G44">
+        <v>1.1366622803500158e-10</v>
+      </c>
+      <c r="H44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="I44">
+        <v>0.99999829708897403</v>
+      </c>
+      <c r="J44">
+        <v>1.3389666849525316e-09</v>
+      </c>
+      <c r="K44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="L44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="M44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="N44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="O44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="P44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="Q44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="R44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="S44">
+        <v>3.0517924743775468e-07</v>
+      </c>
+      <c r="T44">
+        <v>1.3962787680395731e-06</v>
+      </c>
+      <c r="U44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="V44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="W44">
+        <v>2.2204458773774106e-14</v>
+      </c>
+      <c r="X44">
+        <v>8</v>
+      </c>
+      <c r="Y44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="F45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="G45">
+        <v>1.6210714745433231e-08</v>
+      </c>
+      <c r="H45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="I45">
+        <v>0.99999765663566575</v>
+      </c>
+      <c r="J45">
+        <v>7.5067162296210178e-07</v>
+      </c>
+      <c r="K45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="L45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="M45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="N45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="O45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="P45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="Q45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="S45">
+        <v>1.5736689718011211e-06</v>
+      </c>
+      <c r="T45">
+        <v>2.8126472969495624e-09</v>
+      </c>
+      <c r="U45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="V45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="W45">
+        <v>2.2204458127376387e-14</v>
+      </c>
+      <c r="X45">
+        <v>8</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="G46">
+        <v>6.7784892966474761e-13</v>
+      </c>
+      <c r="H46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.99999902159538578</v>
+      </c>
+      <c r="J46">
+        <v>3.0862317102575631e-08</v>
+      </c>
+      <c r="K46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="L46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="M46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="O46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="S46">
+        <v>9.2874393828801315e-07</v>
+      </c>
+      <c r="T46">
+        <v>1.87973034869868e-08</v>
+      </c>
+      <c r="U46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="V46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="W46">
+        <v>2.2204459505008034e-14</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B47">
+        <v>2.6419233645617572e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.6419233645617572e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.6419233645617572e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.6419233645617572e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.6419233645617572e-14</v>
+      </c>
+      <c r="G47">
+        <v>0.0089082821801939396</v>
+      </c>
+      <c r="H47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="I47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="J47">
+        <v>0.85764225458943</v>
+      </c>
+      <c r="K47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="L47">
+        <v>0.0014308813667226633</v>
+      </c>
+      <c r="M47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="N47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="O47">
+        <v>0.0015346557534896877</v>
+      </c>
+      <c r="P47">
+        <v>2.6419233645617565e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.6419233645617562e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.6419233645617562e-14</v>
+      </c>
+      <c r="S47">
+        <v>0.00041765713191805823</v>
+      </c>
+      <c r="T47">
+        <v>0.13006626897782295</v>
+      </c>
+      <c r="U47">
+        <v>2.6419233645617218e-14</v>
+      </c>
+      <c r="V47">
+        <v>2.6419233645617209e-14</v>
+      </c>
+      <c r="W47">
+        <v>2.6419233645617218e-14</v>
+      </c>
+      <c r="X47">
+        <v>9</v>
+      </c>
+      <c r="Y47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B48">
+        <v>2.6187302830997645e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.6187302830997645e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.6187302830997645e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.6187302830997661e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.6187302830997661e-14</v>
+      </c>
+      <c r="G48">
+        <v>0.0086671366426070602</v>
+      </c>
+      <c r="H48">
+        <v>2.618730283099767e-14</v>
+      </c>
+      <c r="I48">
+        <v>2.618730283099768e-14</v>
+      </c>
+      <c r="J48">
+        <v>0.85900466720405411</v>
+      </c>
+      <c r="K48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="L48">
+        <v>0.0014263208662610013</v>
+      </c>
+      <c r="M48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="N48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="O48">
+        <v>0.001524672112409883</v>
+      </c>
+      <c r="P48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="Q48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="R48">
+        <v>2.6187302830997686e-14</v>
+      </c>
+      <c r="S48">
+        <v>0.00041766314254343314</v>
+      </c>
+      <c r="T48">
+        <v>0.1289595400317054</v>
+      </c>
+      <c r="U48">
+        <v>2.618730283099768e-14</v>
+      </c>
+      <c r="V48">
+        <v>2.618730283099768e-14</v>
+      </c>
+      <c r="W48">
+        <v>2.6187302830997696e-14</v>
+      </c>
+      <c r="X48">
+        <v>9</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="G49">
+        <v>0.90847930855821435</v>
+      </c>
+      <c r="H49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.048338186489591324</v>
+      </c>
+      <c r="K49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="L49">
+        <v>0.0044007393382412222</v>
+      </c>
+      <c r="M49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="N49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="O49">
+        <v>0.00091026676389720164</v>
+      </c>
+      <c r="P49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="S49">
+        <v>0.00034656798803741804</v>
+      </c>
+      <c r="T49">
+        <v>0.037524930861663204</v>
+      </c>
+      <c r="U49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="V49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="W49">
+        <v>2.2212723824845896e-14</v>
+      </c>
+      <c r="X49">
+        <v>6</v>
+      </c>
+      <c r="Y49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="C50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="D50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="E50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="F50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="G50">
+        <v>0.016486918678239725</v>
+      </c>
+      <c r="H50">
+        <v>7.0169816523510387e-14</v>
+      </c>
+      <c r="I50">
+        <v>7.0169816523510387e-14</v>
+      </c>
+      <c r="J50">
+        <v>0.47610427175820963</v>
+      </c>
+      <c r="K50">
+        <v>7.0169816523510463e-14</v>
+      </c>
+      <c r="L50">
+        <v>0.00016263765709425006</v>
+      </c>
+      <c r="M50">
+        <v>7.0169816523510463e-14</v>
+      </c>
+      <c r="N50">
+        <v>7.0169816523510451e-14</v>
+      </c>
+      <c r="O50">
+        <v>0.0059993984708245239</v>
+      </c>
+      <c r="P50">
+        <v>7.0169816523510451e-14</v>
+      </c>
+      <c r="Q50">
+        <v>7.0169816523510451e-14</v>
+      </c>
+      <c r="R50">
+        <v>7.0169816523510463e-14</v>
+      </c>
+      <c r="S50">
+        <v>0.0011112688117067672</v>
+      </c>
+      <c r="T50">
+        <v>0.50013550462280287</v>
+      </c>
+      <c r="U50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="V50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="W50">
+        <v>7.0169816523510438e-14</v>
+      </c>
+      <c r="X50">
+        <v>19</v>
+      </c>
+      <c r="Y50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="C51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="D51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="E51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="F51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="G51">
+        <v>0.066810815326849668</v>
+      </c>
+      <c r="H51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="I51">
+        <v>4.9529353048047222e-14</v>
+      </c>
+      <c r="J51">
+        <v>0.46690847384437173</v>
+      </c>
+      <c r="K51">
+        <v>4.9529353048047222e-14</v>
+      </c>
+      <c r="L51">
+        <v>0.020216717168012193</v>
+      </c>
+      <c r="M51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="N51">
+        <v>4.9529353048047222e-14</v>
+      </c>
+      <c r="O51">
+        <v>0.022990428343305173</v>
+      </c>
+      <c r="P51">
+        <v>4.952935304804719e-14</v>
+      </c>
+      <c r="Q51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="R51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="S51">
+        <v>0.0047564679347193023</v>
+      </c>
+      <c r="T51">
+        <v>0.41831709738194944</v>
+      </c>
+      <c r="U51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="V51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="W51">
+        <v>4.9529353048047171e-14</v>
+      </c>
+      <c r="X51">
+        <v>9</v>
+      </c>
+      <c r="Y51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="G52">
+        <v>4.5747961994623177e-07</v>
+      </c>
+      <c r="H52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="J52">
+        <v>0.011624300674258327</v>
+      </c>
+      <c r="K52">
+        <v>0.98414370849354083</v>
+      </c>
+      <c r="L52">
+        <v>4.3026463766859093e-06</v>
+      </c>
+      <c r="M52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="N52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="O52">
+        <v>1.2333346756052514e-06</v>
+      </c>
+      <c r="P52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="S52">
+        <v>0.00027856720008222826</v>
+      </c>
+      <c r="T52">
+        <v>0.0039474301711134594</v>
+      </c>
+      <c r="U52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="V52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="W52">
+        <v>2.2202896342930822e-14</v>
+      </c>
+      <c r="X52">
+        <v>10</v>
+      </c>
+      <c r="Y52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B53">
+        <v>6.5448348472877804e-10</v>
+      </c>
+      <c r="C53">
+        <v>6.5448348472877804e-10</v>
+      </c>
+      <c r="D53">
+        <v>6.5448348472877804e-10</v>
+      </c>
+      <c r="E53">
+        <v>6.544834847287801e-10</v>
+      </c>
+      <c r="F53">
+        <v>6.5448348472878031e-10</v>
+      </c>
+      <c r="G53">
+        <v>0.075115706028495585</v>
+      </c>
+      <c r="H53">
+        <v>6.544834847287799e-10</v>
+      </c>
+      <c r="I53">
+        <v>6.544834847287799e-10</v>
+      </c>
+      <c r="J53">
+        <v>0.18650394611571111</v>
+      </c>
+      <c r="K53">
+        <v>0.20860239593894667</v>
+      </c>
+      <c r="L53">
+        <v>0.081160171348031523</v>
+      </c>
+      <c r="M53">
+        <v>6.5448348472878114e-10</v>
+      </c>
+      <c r="N53">
+        <v>6.5448348472878114e-10</v>
+      </c>
+      <c r="O53">
+        <v>0.11016168298689771</v>
+      </c>
+      <c r="P53">
+        <v>6.5448348472878114e-10</v>
+      </c>
+      <c r="Q53">
+        <v>6.5448348472878031e-10</v>
+      </c>
+      <c r="R53">
+        <v>6.5448348472878114e-10</v>
+      </c>
+      <c r="S53">
+        <v>0.16579244141611321</v>
+      </c>
+      <c r="T53">
+        <v>0.17266364634855211</v>
+      </c>
+      <c r="U53">
+        <v>6.5448348472878362e-10</v>
+      </c>
+      <c r="V53">
+        <v>6.5448348472878362e-10</v>
+      </c>
+      <c r="W53">
+        <v>6.5448348472878455e-10</v>
+      </c>
+      <c r="X53">
+        <v>10</v>
+      </c>
+      <c r="Y53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="D54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="E54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="F54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="G54">
+        <v>1.2255595219215517e-06</v>
+      </c>
+      <c r="H54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="J54">
+        <v>0.010810426224416022</v>
+      </c>
+      <c r="K54">
+        <v>0.98464565808586457</v>
+      </c>
+      <c r="L54">
+        <v>2.6154923708423559e-06</v>
+      </c>
+      <c r="M54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="N54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="O54">
+        <v>7.0909400222060313e-07</v>
+      </c>
+      <c r="P54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="Q54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="R54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="S54">
+        <v>0.00023945580368706337</v>
+      </c>
+      <c r="T54">
+        <v>0.0042999097398043066</v>
+      </c>
+      <c r="U54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="V54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="W54">
+        <v>2.2203030756789863e-14</v>
+      </c>
+      <c r="X54">
+        <v>10</v>
+      </c>
+      <c r="Y54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="D55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="E55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="G55">
+        <v>5.4730044110495648e-08</v>
+      </c>
+      <c r="H55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="J55">
+        <v>0.029554950373095582</v>
+      </c>
+      <c r="K55">
+        <v>0.9686328146218518</v>
+      </c>
+      <c r="L55">
+        <v>1.8781382734939704e-06</v>
+      </c>
+      <c r="M55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="N55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="O55">
+        <v>3.6325631097476883e-06</v>
+      </c>
+      <c r="P55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="Q55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="R55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="S55">
+        <v>0.0002874288509849997</v>
+      </c>
+      <c r="T55">
+        <v>0.0015192407223073633</v>
+      </c>
+      <c r="U55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="V55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="W55">
+        <v>2.2200325491520756e-14</v>
+      </c>
+      <c r="X55">
+        <v>10</v>
+      </c>
+      <c r="Y55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="D56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="E56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="G56">
+        <v>1.3106179489835294e-06</v>
+      </c>
+      <c r="H56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="J56">
+        <v>0.030049841875710772</v>
+      </c>
+      <c r="K56">
+        <v>0.96698961275365336</v>
+      </c>
+      <c r="L56">
+        <v>0.00047743535377689012</v>
+      </c>
+      <c r="M56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="N56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="O56">
+        <v>1.7236264482610633e-06</v>
+      </c>
+      <c r="P56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="Q56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="R56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="S56">
+        <v>0.00010733733406009478</v>
+      </c>
+      <c r="T56">
+        <v>0.0023727384380687194</v>
+      </c>
+      <c r="U56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="V56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="W56">
+        <v>2.2200594633752616e-14</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="C57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="G57">
+        <v>5.9561936100297903e-06</v>
+      </c>
+      <c r="H57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="J57">
+        <v>0.0099264226919985217</v>
+      </c>
+      <c r="K57">
+        <v>0.97915658261705274</v>
+      </c>
+      <c r="L57">
+        <v>6.2328775804597556e-05</v>
+      </c>
+      <c r="M57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="N57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="O57">
+        <v>1.1137698989444738e-06</v>
+      </c>
+      <c r="P57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="Q57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="R57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="S57">
+        <v>0.0004132307210189661</v>
+      </c>
+      <c r="T57">
+        <v>0.010434365230282964</v>
+      </c>
+      <c r="U57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="V57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="W57">
+        <v>2.2204150322832522e-14</v>
+      </c>
+      <c r="X57">
+        <v>10</v>
+      </c>
+      <c r="Y57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B58">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="C58">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="D58">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="E58">
+        <v>4.4997626331377315e-09</v>
+      </c>
+      <c r="F58">
+        <v>4.4997626331377315e-09</v>
+      </c>
+      <c r="G58">
+        <v>0.073795406021155086</v>
+      </c>
+      <c r="H58">
+        <v>4.499762633137729e-09</v>
+      </c>
+      <c r="I58">
+        <v>4.4997626331377431e-09</v>
+      </c>
+      <c r="J58">
+        <v>0.17225541556862384</v>
+      </c>
+      <c r="K58">
+        <v>0.20462614641164406</v>
+      </c>
+      <c r="L58">
+        <v>0.082018449951160921</v>
+      </c>
+      <c r="M58">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="N58">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="O58">
+        <v>0.13071580788630627</v>
+      </c>
+      <c r="P58">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="Q58">
+        <v>4.4997626331380781e-09</v>
+      </c>
+      <c r="R58">
+        <v>4.4997626331380913e-09</v>
+      </c>
+      <c r="S58">
+        <v>0.16190161186358054</v>
+      </c>
+      <c r="T58">
+        <v>0.1746870948010899</v>
+      </c>
+      <c r="U58">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="V58">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="W58">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Y58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="C59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="D59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="E59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="G59">
+        <v>9.6522275673028484e-06</v>
+      </c>
+      <c r="H59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="J59">
+        <v>0.0093251346495942123</v>
+      </c>
+      <c r="K59">
+        <v>0.97884928213244649</v>
+      </c>
+      <c r="L59">
+        <v>5.9580732942077408e-05</v>
+      </c>
+      <c r="M59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="N59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="O59">
+        <v>1.095586324954764e-06</v>
+      </c>
+      <c r="P59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="Q59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="R59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="S59">
+        <v>0.00040424235394911554</v>
+      </c>
+      <c r="T59">
+        <v>0.011351012316842645</v>
+      </c>
+      <c r="U59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="V59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="W59">
+        <v>2.2204130824985791e-14</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B60">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="C60">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="D60">
+        <v>4.4997626331377307e-09</v>
+      </c>
+      <c r="E60">
+        <v>4.4997626331377315e-09</v>
+      </c>
+      <c r="F60">
+        <v>4.4997626331377315e-09</v>
+      </c>
+      <c r="G60">
+        <v>0.073795406021155086</v>
+      </c>
+      <c r="H60">
+        <v>4.499762633137729e-09</v>
+      </c>
+      <c r="I60">
+        <v>4.4997626331377431e-09</v>
+      </c>
+      <c r="J60">
+        <v>0.17225541556862384</v>
+      </c>
+      <c r="K60">
+        <v>0.20462614641164406</v>
+      </c>
+      <c r="L60">
+        <v>0.082018449951160921</v>
+      </c>
+      <c r="M60">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="N60">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="O60">
+        <v>0.13071580788630627</v>
+      </c>
+      <c r="P60">
+        <v>4.4997626331380806e-09</v>
+      </c>
+      <c r="Q60">
+        <v>4.4997626331380781e-09</v>
+      </c>
+      <c r="R60">
+        <v>4.4997626331380913e-09</v>
+      </c>
+      <c r="S60">
+        <v>0.16190161186358054</v>
+      </c>
+      <c r="T60">
+        <v>0.1746870948010899</v>
+      </c>
+      <c r="U60">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="V60">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="W60">
+        <v>4.4997626331380946e-09</v>
+      </c>
+      <c r="X60">
+        <v>10</v>
+      </c>
+      <c r="Y60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="G61">
+        <v>9.5141685736511819e-10</v>
+      </c>
+      <c r="H61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="J61">
+        <v>0.00023882516527557197</v>
+      </c>
+      <c r="K61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="L61">
+        <v>0.97801439002261292</v>
+      </c>
+      <c r="M61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="N61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="O61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="Q61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="R61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="S61">
+        <v>2.1859276001186554e-08</v>
+      </c>
+      <c r="T61">
+        <v>0.00096753979218228842</v>
+      </c>
+      <c r="U61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="V61">
+        <v>2.2200964355214867e-14</v>
+      </c>
+      <c r="W61">
+        <v>0.020779222208881194</v>
+      </c>
+      <c r="X61">
+        <v>11</v>
+      </c>
+      <c r="Y61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="F62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="G62">
+        <v>0.0048536741933530433</v>
+      </c>
+      <c r="H62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="J62">
+        <v>0.0069143126779681536</v>
+      </c>
+      <c r="K62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="L62">
+        <v>0.8625174719473474</v>
+      </c>
+      <c r="M62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="N62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="O62">
+        <v>0.0033964037853707512</v>
+      </c>
+      <c r="P62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="Q62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="R62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="S62">
+        <v>0.00017766145841048285</v>
+      </c>
+      <c r="T62">
+        <v>0.12214047593719488</v>
+      </c>
+      <c r="U62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="V62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="W62">
+        <v>2.2204761664299927e-14</v>
+      </c>
+      <c r="X62">
+        <v>11</v>
+      </c>
+      <c r="Y62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="E63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="F63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="G63">
+        <v>0.0027416519969148691</v>
+      </c>
+      <c r="H63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="I63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="J63">
+        <v>0.023793600138711967</v>
+      </c>
+      <c r="K63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="L63">
+        <v>0.92245017324087086</v>
+      </c>
+      <c r="M63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="N63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="O63">
+        <v>0.0039641488362341937</v>
+      </c>
+      <c r="P63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="Q63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="R63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="S63">
+        <v>0.00014603367373383275</v>
+      </c>
+      <c r="T63">
+        <v>0.046904392113178824</v>
+      </c>
+      <c r="U63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="V63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="W63">
+        <v>2.2212426896835045e-14</v>
+      </c>
+      <c r="X63">
+        <v>11</v>
+      </c>
+      <c r="Y63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="G64">
+        <v>0.0014609501193637367</v>
+      </c>
+      <c r="H64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="J64">
+        <v>0.011687781233807393</v>
+      </c>
+      <c r="K64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="L64">
+        <v>0.92535805671205762</v>
+      </c>
+      <c r="M64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="N64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="O64">
+        <v>0.0010946921459710531</v>
+      </c>
+      <c r="P64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="Q64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="R64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="S64">
+        <v>0.00021278197671118493</v>
+      </c>
+      <c r="T64">
+        <v>0.060185737811733635</v>
+      </c>
+      <c r="U64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="V64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="W64">
+        <v>2.2204382488552877e-14</v>
+      </c>
+      <c r="X64">
+        <v>11</v>
+      </c>
+      <c r="Y64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="G65">
+        <v>0.45914799406396395</v>
+      </c>
+      <c r="H65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="J65">
+        <v>0.16195697636297945</v>
+      </c>
+      <c r="K65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="L65">
+        <v>0.37758875251877527</v>
+      </c>
+      <c r="M65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="N65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="O65">
+        <v>4.0641309299527938e-05</v>
+      </c>
+      <c r="P65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="S65">
+        <v>5.9082226945995736e-05</v>
+      </c>
+      <c r="T65">
+        <v>0.0012065535176770639</v>
+      </c>
+      <c r="U65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="V65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="W65">
+        <v>2.2416472237685219e-14</v>
+      </c>
+      <c r="X65">
+        <v>6</v>
+      </c>
+      <c r="Y65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="F66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="G66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="J66">
+        <v>0.0045421654888268921</v>
+      </c>
+      <c r="K66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="L66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="M66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="N66">
+        <v>0.99043665354716592</v>
+      </c>
+      <c r="O66">
+        <v>0.0039244804302008222</v>
+      </c>
+      <c r="P66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="Q66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="R66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="S66">
+        <v>0.0010966337381123027</v>
+      </c>
+      <c r="T66">
+        <v>6.6795316559862274e-08</v>
+      </c>
+      <c r="U66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="V66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="W66">
+        <v>2.2202974894087494e-14</v>
+      </c>
+      <c r="X66">
+        <v>13</v>
+      </c>
+      <c r="Y66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="G67">
+        <v>7.149534056031146e-12</v>
+      </c>
+      <c r="H67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="J67">
+        <v>0.022987069186450521</v>
+      </c>
+      <c r="K67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="L67">
+        <v>4.1012277044753804e-11</v>
+      </c>
+      <c r="M67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="N67">
+        <v>0.96308245850109964</v>
+      </c>
+      <c r="O67">
+        <v>0.012282553106370109</v>
+      </c>
+      <c r="P67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="Q67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="R67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="S67">
+        <v>0.001647916306145879</v>
+      </c>
+      <c r="T67">
+        <v>2.8514389789737098e-09</v>
+      </c>
+      <c r="U67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="V67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="W67">
+        <v>2.220513216862845e-14</v>
+      </c>
+      <c r="X67">
+        <v>13</v>
+      </c>
+      <c r="Y67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="C68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="D68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="E68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="F68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="G68">
+        <v>1.1831556346033529e-12</v>
+      </c>
+      <c r="H68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="I68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="J68">
+        <v>0.020633817121400055</v>
+      </c>
+      <c r="K68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="L68">
+        <v>1.3960136200880079e-13</v>
+      </c>
+      <c r="M68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="N68">
+        <v>0.97296632514682169</v>
+      </c>
+      <c r="O68">
+        <v>0.0048150770713825319</v>
+      </c>
+      <c r="P68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="Q68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="R68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="S68">
+        <v>0.0015847775407332933</v>
+      </c>
+      <c r="T68">
+        <v>3.118006682044344e-09</v>
+      </c>
+      <c r="U68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="V68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="W68">
+        <v>2.2202822815371001e-14</v>
+      </c>
+      <c r="X68">
+        <v>13</v>
+      </c>
+      <c r="Y68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="E69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="F69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="G69">
+        <v>2.0066833247305172e-12</v>
+      </c>
+      <c r="H69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="J69">
+        <v>0.02019582678754598</v>
+      </c>
+      <c r="K69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="L69">
+        <v>1.3426754964833157e-12</v>
+      </c>
+      <c r="M69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="N69">
+        <v>0.97325884040561517</v>
+      </c>
+      <c r="O69">
+        <v>0.0046812018398226622</v>
+      </c>
+      <c r="P69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="Q69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="R69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="S69">
+        <v>0.0018641258891250745</v>
+      </c>
+      <c r="T69">
+        <v>5.0742088249332445e-09</v>
+      </c>
+      <c r="U69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="V69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="W69">
+        <v>2.2202923435134426e-14</v>
+      </c>
+      <c r="X69">
+        <v>13</v>
+      </c>
+      <c r="Y69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="C70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="D70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="E70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="F70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="G70">
+        <v>1.8795616087666781e-13</v>
+      </c>
+      <c r="H70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="I70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="J70">
+        <v>0.0055026147974167987</v>
+      </c>
+      <c r="K70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="L70">
+        <v>2.2396518415425158e-09</v>
+      </c>
+      <c r="M70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="N70">
+        <v>0.97897713282360133</v>
+      </c>
+      <c r="O70">
+        <v>0.014139724435410145</v>
+      </c>
+      <c r="P70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="Q70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="R70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="S70">
+        <v>0.0013804302024980918</v>
+      </c>
+      <c r="T70">
+        <v>9.5500900609911484e-08</v>
+      </c>
+      <c r="U70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="V70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="W70">
+        <v>2.2203438579728839e-14</v>
+      </c>
+      <c r="X70">
+        <v>13</v>
+      </c>
+      <c r="Y70">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="B71">
+        <v>2.0542859397755177e-13</v>
+      </c>
+      <c r="C71">
+        <v>2.0542859397755177e-13</v>
+      </c>
+      <c r="D71">
+        <v>2.0542859397755177e-13</v>
+      </c>
+      <c r="E71">
+        <v>2.054285939775521e-13</v>
+      </c>
+      <c r="F71">
+        <v>2.054285939775521e-13</v>
+      </c>
+      <c r="G71">
+        <v>7.9172551432745666e-10</v>
+      </c>
+      <c r="H71">
+        <v>2.054285939775522e-13</v>
+      </c>
+      <c r="I71">
+        <v>2.054285939775524e-13</v>
+      </c>
+      <c r="J71">
+        <v>0.019403504642169316</v>
+      </c>
+      <c r="K71">
+        <v>2.0542859397755273e-13</v>
+      </c>
+      <c r="L71">
+        <v>7.4743272604770777e-06</v>
+      </c>
+      <c r="M71">
+        <v>2.0542859397755273e-13</v>
+      </c>
+      <c r="N71">
+        <v>2.0542859397755273e-13</v>
+      </c>
+      <c r="O71">
+        <v>0.95987610295258419</v>
+      </c>
+      <c r="P71">
+        <v>2.0542859397755273e-13</v>
+      </c>
+      <c r="Q71">
+        <v>2.0542859397755245e-13</v>
+      </c>
+      <c r="R71">
+        <v>2.0542859397755245e-13</v>
+      </c>
+      <c r="S71">
+        <v>0.020630683634806041</v>
+      </c>
+      <c r="T71">
+        <v>8.2233648167970817e-05</v>
+      </c>
+      <c r="U71">
+        <v>2.0542859397755177e-13</v>
+      </c>
+      <c r="V71">
+        <v>2.0542859397755157e-13</v>
+      </c>
+      <c r="W71">
+        <v>2.054285939775518e-13</v>
+      </c>
+      <c r="X71">
+        <v>14</v>
+      </c>
+      <c r="Y71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B72">
+        <v>3.3689353679942186e-13</v>
+      </c>
+      <c r="C72">
+        <v>3.3689353679942186e-13</v>
+      </c>
+      <c r="D72">
+        <v>3.3689353679942186e-13</v>
+      </c>
+      <c r="E72">
+        <v>3.3689353679942176e-13</v>
+      </c>
+      <c r="F72">
+        <v>3.3689353679942186e-13</v>
+      </c>
+      <c r="G72">
+        <v>1.8597418849094315e-11</v>
+      </c>
+      <c r="H72">
+        <v>3.3689353679942393e-13</v>
+      </c>
+      <c r="I72">
+        <v>3.3689353679942347e-13</v>
+      </c>
+      <c r="J72">
+        <v>0.028058406069267405</v>
+      </c>
+      <c r="K72">
+        <v>3.3689353679942246e-13</v>
+      </c>
+      <c r="L72">
+        <v>1.7459944820390933e-06</v>
+      </c>
+      <c r="M72">
+        <v>3.3689353679942292e-13</v>
+      </c>
+      <c r="N72">
+        <v>3.3689353679942332e-13</v>
+      </c>
+      <c r="O72">
+        <v>0.95505830193785823</v>
+      </c>
+      <c r="P72">
+        <v>3.3689353679942332e-13</v>
+      </c>
+      <c r="Q72">
+        <v>3.3689353679942292e-13</v>
+      </c>
+      <c r="R72">
+        <v>3.3689353679942352e-13</v>
+      </c>
+      <c r="S72">
+        <v>0.015923947782867296</v>
+      </c>
+      <c r="T72">
+        <v>0.00095759819153737899</v>
+      </c>
+      <c r="U72">
+        <v>3.3689353679942393e-13</v>
+      </c>
+      <c r="V72">
+        <v>3.3689353679942393e-13</v>
+      </c>
+      <c r="W72">
+        <v>3.3689353679942393e-13</v>
+      </c>
+      <c r="X72">
+        <v>14</v>
+      </c>
+      <c r="Y72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B73">
+        <v>1.3993709632022893e-13</v>
+      </c>
+      <c r="C73">
+        <v>1.3993709632022893e-13</v>
+      </c>
+      <c r="D73">
+        <v>1.3993709632022893e-13</v>
+      </c>
+      <c r="E73">
+        <v>1.3993709632022883e-13</v>
+      </c>
+      <c r="F73">
+        <v>1.3993709632022883e-13</v>
+      </c>
+      <c r="G73">
+        <v>3.7112997223038081e-08</v>
+      </c>
+      <c r="H73">
+        <v>1.3993709632022916e-13</v>
+      </c>
+      <c r="I73">
+        <v>1.3993709632022926e-13</v>
+      </c>
+      <c r="J73">
+        <v>0.079287733764966423</v>
+      </c>
+      <c r="K73">
+        <v>1.3993709632022876e-13</v>
+      </c>
+      <c r="L73">
+        <v>3.5616341982555807e-13</v>
+      </c>
+      <c r="M73">
+        <v>1.3993709632022886e-13</v>
+      </c>
+      <c r="N73">
+        <v>1.3993709632022886e-13</v>
+      </c>
+      <c r="O73">
+        <v>0.8910949621261981</v>
+      </c>
+      <c r="P73">
+        <v>1.3993709632022886e-13</v>
+      </c>
+      <c r="Q73">
+        <v>1.3993709632022886e-13</v>
+      </c>
+      <c r="R73">
+        <v>1.3993709632022886e-13</v>
+      </c>
+      <c r="S73">
+        <v>0.014368037082991508</v>
+      </c>
+      <c r="T73">
+        <v>0.015249229910251167</v>
+      </c>
+      <c r="U73">
+        <v>1.3993709632022926e-13</v>
+      </c>
+      <c r="V73">
+        <v>1.3993709632022926e-13</v>
+      </c>
+      <c r="W73">
+        <v>1.3993709632022926e-13</v>
+      </c>
+      <c r="X73">
+        <v>14</v>
+      </c>
+      <c r="Y73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74">
+        <v>6.8091836896110701e-13</v>
+      </c>
+      <c r="C74">
+        <v>6.8091836896110701e-13</v>
+      </c>
+      <c r="D74">
+        <v>6.8091836896110701e-13</v>
+      </c>
+      <c r="E74">
+        <v>6.8091836896110671e-13</v>
+      </c>
+      <c r="F74">
+        <v>6.8091836896110671e-13</v>
+      </c>
+      <c r="G74">
+        <v>0.18949698128049045</v>
+      </c>
+      <c r="H74">
+        <v>6.8091836896110731e-13</v>
+      </c>
+      <c r="I74">
+        <v>6.8091836896110731e-13</v>
+      </c>
+      <c r="J74">
+        <v>0.046953389095910382</v>
+      </c>
+      <c r="K74">
+        <v>6.8091836896110731e-13</v>
+      </c>
+      <c r="L74">
+        <v>1.1804100956176022e-09</v>
+      </c>
+      <c r="M74">
+        <v>6.8091836896110731e-13</v>
+      </c>
+      <c r="N74">
+        <v>6.8091836896110731e-13</v>
+      </c>
+      <c r="O74">
+        <v>1.0202535291274542e-05</v>
+      </c>
+      <c r="P74">
+        <v>6.8091836896110701e-13</v>
+      </c>
+      <c r="Q74">
+        <v>0.2815107351371357</v>
+      </c>
+      <c r="R74">
+        <v>6.8091836896110701e-13</v>
+      </c>
+      <c r="S74">
+        <v>0.4816518468706299</v>
+      </c>
+      <c r="T74">
+        <v>0.00037684388991850068</v>
+      </c>
+      <c r="U74">
+        <v>6.8091836896110752e-13</v>
+      </c>
+      <c r="V74">
+        <v>6.8091836896110752e-13</v>
+      </c>
+      <c r="W74">
+        <v>6.8091836896110752e-13</v>
+      </c>
+      <c r="X74">
+        <v>18</v>
+      </c>
+      <c r="Y74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B75">
+        <v>1.780636693288919e-13</v>
+      </c>
+      <c r="C75">
+        <v>1.780636693288919e-13</v>
+      </c>
+      <c r="D75">
+        <v>1.780636693288919e-13</v>
+      </c>
+      <c r="E75">
+        <v>1.780636693288917e-13</v>
+      </c>
+      <c r="F75">
+        <v>1.780636693288919e-13</v>
+      </c>
+      <c r="G75">
+        <v>9.2736126205497744e-12</v>
+      </c>
+      <c r="H75">
+        <v>1.780636693288918e-13</v>
+      </c>
+      <c r="I75">
+        <v>1.780636693288915e-13</v>
+      </c>
+      <c r="J75">
+        <v>0.022454809715604079</v>
+      </c>
+      <c r="K75">
+        <v>1.780636693288915e-13</v>
+      </c>
+      <c r="L75">
+        <v>4.0928239782558124e-07</v>
+      </c>
+      <c r="M75">
+        <v>1.7806366932889193e-13</v>
+      </c>
+      <c r="N75">
+        <v>1.7806366932889226e-13</v>
+      </c>
+      <c r="O75">
+        <v>0.96570459965728117</v>
+      </c>
+      <c r="P75">
+        <v>1.7806366932889226e-13</v>
+      </c>
+      <c r="Q75">
+        <v>1.7806366932889193e-13</v>
+      </c>
+      <c r="R75">
+        <v>1.7806366932889231e-13</v>
+      </c>
+      <c r="S75">
+        <v>0.011517332333930944</v>
+      </c>
+      <c r="T75">
+        <v>0.00032284899866341296</v>
+      </c>
+      <c r="U75">
+        <v>1.7806366932889163e-13</v>
+      </c>
+      <c r="V75">
+        <v>1.7806366932889142e-13</v>
+      </c>
+      <c r="W75">
+        <v>1.7806366932889173e-13</v>
+      </c>
+      <c r="X75">
+        <v>14</v>
+      </c>
+      <c r="Y75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="C76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="D76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="E76">
+        <v>6.872337217532212e-13</v>
+      </c>
+      <c r="F76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="G76">
+        <v>2.9425963289558017e-09</v>
+      </c>
+      <c r="H76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="I76">
+        <v>6.872337217532216e-13</v>
+      </c>
+      <c r="J76">
+        <v>0.028699727316603529</v>
+      </c>
+      <c r="K76">
+        <v>6.8723372175322201e-13</v>
+      </c>
+      <c r="L76">
+        <v>1.6722664099491284e-05</v>
+      </c>
+      <c r="M76">
+        <v>6.8723372175322282e-13</v>
+      </c>
+      <c r="N76">
+        <v>6.8723372175322282e-13</v>
+      </c>
+      <c r="O76">
+        <v>0.93674824842390225</v>
+      </c>
+      <c r="P76">
+        <v>6.8723372175322342e-13</v>
+      </c>
+      <c r="Q76">
+        <v>6.8723372175322342e-13</v>
+      </c>
+      <c r="R76">
+        <v>6.8723372175322342e-13</v>
+      </c>
+      <c r="S76">
+        <v>0.034166253572051108</v>
+      </c>
+      <c r="T76">
+        <v>0.00036904506975123514</v>
+      </c>
+      <c r="U76">
+        <v>6.8723372175317748e-13</v>
+      </c>
+      <c r="V76">
+        <v>6.8723372175317748e-13</v>
+      </c>
+      <c r="W76">
+        <v>6.8723372175317819e-13</v>
+      </c>
+      <c r="X76">
+        <v>14</v>
+      </c>
+      <c r="Y76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="B77">
+        <v>1.2926042507213883e-13</v>
+      </c>
+      <c r="C77">
+        <v>1.2926042507213883e-13</v>
+      </c>
+      <c r="D77">
+        <v>1.2926042507213883e-13</v>
+      </c>
+      <c r="E77">
+        <v>1.2926042507213883e-13</v>
+      </c>
+      <c r="F77">
+        <v>1.2926042507213886e-13</v>
+      </c>
+      <c r="G77">
+        <v>5.9839153197976367e-11</v>
+      </c>
+      <c r="H77">
+        <v>1.2926042507213906e-13</v>
+      </c>
+      <c r="I77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="J77">
+        <v>0.046050457778985893</v>
+      </c>
+      <c r="K77">
+        <v>1.2926042507213886e-13</v>
+      </c>
+      <c r="L77">
+        <v>1.3892156487630109e-09</v>
+      </c>
+      <c r="M77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="N77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="O77">
+        <v>0.93200061146709323</v>
+      </c>
+      <c r="P77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="Q77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="R77">
+        <v>1.2926042507213896e-13</v>
+      </c>
+      <c r="S77">
+        <v>0.021881989216310432</v>
+      </c>
+      <c r="T77">
+        <v>6.694008648783006e-05</v>
+      </c>
+      <c r="U77">
+        <v>1.2926042507213906e-13</v>
+      </c>
+      <c r="V77">
+        <v>1.2926042507213906e-13</v>
+      </c>
+      <c r="W77">
+        <v>1.2926042507213906e-13</v>
+      </c>
+      <c r="X77">
+        <v>14</v>
+      </c>
+      <c r="Y77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="C78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="D78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="E78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="F78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="G78">
+        <v>7.2360598305205131e-09</v>
+      </c>
+      <c r="H78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="I78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="J78">
+        <v>0.0019797831269889607</v>
+      </c>
+      <c r="K78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="L78">
+        <v>7.3063942708553335e-10</v>
+      </c>
+      <c r="M78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="N78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="O78">
+        <v>0.00085050660010322916</v>
+      </c>
+      <c r="P78">
+        <v>0.99541690661631577</v>
+      </c>
+      <c r="Q78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="R78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="S78">
+        <v>0.001322337273781032</v>
+      </c>
+      <c r="T78">
+        <v>0.00043045841577857226</v>
+      </c>
+      <c r="U78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="V78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="W78">
+        <v>2.2201880203436242e-14</v>
+      </c>
+      <c r="X78">
+        <v>15</v>
+      </c>
+      <c r="Y78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="C79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="D79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="E79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="F79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="G79">
+        <v>8.8022577463065217e-08</v>
+      </c>
+      <c r="H79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="I79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="J79">
+        <v>0.00088568889628584451</v>
+      </c>
+      <c r="K79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="L79">
+        <v>1.7286978879875509e-08</v>
+      </c>
+      <c r="M79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="N79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="O79">
+        <v>0.00019557261787003143</v>
+      </c>
+      <c r="P79">
+        <v>0.9956005258202395</v>
+      </c>
+      <c r="Q79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="R79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="S79">
+        <v>0.0032186726127514859</v>
+      </c>
+      <c r="T79">
+        <v>9.9434742963889016e-05</v>
+      </c>
+      <c r="U79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="V79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="W79">
+        <v>2.2201547001112463e-14</v>
+      </c>
+      <c r="X79">
+        <v>15</v>
+      </c>
+      <c r="Y79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="C80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="D80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="E80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="F80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="G80">
+        <v>4.8177481609653053e-07</v>
+      </c>
+      <c r="H80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="I80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="J80">
+        <v>1.8095910288245924e-11</v>
+      </c>
+      <c r="K80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="L80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="M80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="N80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="O80">
+        <v>6.2399150244399502e-06</v>
+      </c>
+      <c r="P80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="Q80">
+        <v>0.95764667385672619</v>
+      </c>
+      <c r="R80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="S80">
+        <v>3.9467135125884623e-05</v>
+      </c>
+      <c r="T80">
+        <v>0.042307137299856329</v>
+      </c>
+      <c r="U80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="V80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="W80">
+        <v>2.2200917282782535e-14</v>
+      </c>
+      <c r="X80">
+        <v>16</v>
+      </c>
+      <c r="Y80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="C81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="D81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="E81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="F81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="G81">
+        <v>0.043076782224135676</v>
+      </c>
+      <c r="H81">
+        <v>0.043062032398710662</v>
+      </c>
+      <c r="I81">
+        <v>0.043062032398710662</v>
+      </c>
+      <c r="J81">
+        <v>0.043062159468507902</v>
+      </c>
+      <c r="K81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="L81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="M81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="N81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="O81">
+        <v>0.043323452161920177</v>
+      </c>
+      <c r="P81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="Q81">
+        <v>0.080583256575825685</v>
+      </c>
+      <c r="R81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="S81">
+        <v>0.052760201758307368</v>
+      </c>
+      <c r="T81">
+        <v>0.048201629431932423</v>
+      </c>
+      <c r="U81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="V81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="W81">
+        <v>0.043062032398710676</v>
+      </c>
+      <c r="X81">
+        <v>16</v>
+      </c>
+      <c r="Y81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B82">
+        <v>0.043401191444204637</v>
+      </c>
+      <c r="C82">
+        <v>0.043401191444204637</v>
+      </c>
+      <c r="D82">
+        <v>0.043401191444204582</v>
+      </c>
+      <c r="E82">
+        <v>0.043401191444204575</v>
+      </c>
+      <c r="F82">
+        <v>0.043401191444204575</v>
+      </c>
+      <c r="G82">
+        <v>0.044419561636233923</v>
+      </c>
+      <c r="H82">
+        <v>0.043401191444204547</v>
+      </c>
+      <c r="I82">
+        <v>0.043401191444204547</v>
+      </c>
+      <c r="J82">
+        <v>0.043402103943325866</v>
+      </c>
+      <c r="K82">
+        <v>0.043401191444204547</v>
+      </c>
+      <c r="L82">
+        <v>0.043401191885449483</v>
+      </c>
+      <c r="M82">
+        <v>0.043401191444204498</v>
+      </c>
+      <c r="N82">
+        <v>0.043401191444204498</v>
+      </c>
+      <c r="O82">
+        <v>0.043401398144103084</v>
+      </c>
+      <c r="P82">
+        <v>0.043401191444204498</v>
+      </c>
+      <c r="Q82">
+        <v>0.080877001850829106</v>
+      </c>
+      <c r="R82">
+        <v>0.043401191444204602</v>
+      </c>
+      <c r="S82">
+        <v>0.050063828597186583</v>
+      </c>
+      <c r="T82">
+        <v>0.043417042279803572</v>
+      </c>
+      <c r="U82">
+        <v>0.043401191444204533</v>
+      </c>
+      <c r="V82">
+        <v>0.043401191444204533</v>
+      </c>
+      <c r="W82">
+        <v>0.043401191444204533</v>
+      </c>
+      <c r="X82">
+        <v>16</v>
+      </c>
+      <c r="Y82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="B83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="E83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="F83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="G83">
+        <v>7.6571616459277482e-13</v>
+      </c>
+      <c r="H83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2934134966470567e-05</v>
+      </c>
+      <c r="K83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="L83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="M83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="N83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="O83">
+        <v>0.00031718690894744493</v>
+      </c>
+      <c r="P83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="Q83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="R83">
+        <v>0.99956084923279154</v>
+      </c>
+      <c r="S83">
+        <v>5.4062659892057879e-05</v>
+      </c>
+      <c r="T83">
+        <v>4.4967062281575396e-05</v>
+      </c>
+      <c r="U83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="V83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="W83">
+        <v>2.2204017836430248e-14</v>
+      </c>
+      <c r="X83">
+        <v>17</v>
+      </c>
+      <c r="Y83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="D84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="E84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="F84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="G84">
+        <v>2.1223630836665659e-13</v>
+      </c>
+      <c r="H84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="J84">
+        <v>8.3770718103966067e-07</v>
+      </c>
+      <c r="K84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="L84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="M84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="N84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="O84">
+        <v>0.0011934591255117401</v>
+      </c>
+      <c r="P84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="Q84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="R84">
+        <v>0.99869471029820356</v>
+      </c>
+      <c r="S84">
+        <v>1.9993808392213809e-06</v>
+      </c>
+      <c r="T84">
+        <v>0.00010899348769697215</v>
+      </c>
+      <c r="U84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="V84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="W84">
+        <v>2.2203148159919149e-14</v>
+      </c>
+      <c r="X84">
+        <v>17</v>
+      </c>
+      <c r="Y84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="B85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="C85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="D85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="E85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="F85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="G85">
+        <v>3.8073338017407801e-13</v>
+      </c>
+      <c r="H85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="J85">
+        <v>9.9818073920146821e-07</v>
+      </c>
+      <c r="K85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="L85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="M85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="N85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="O85">
+        <v>0.00097342971647525363</v>
+      </c>
+      <c r="P85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="Q85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="R85">
+        <v>0.99890155175410777</v>
+      </c>
+      <c r="S85">
+        <v>2.9353121450649416e-06</v>
+      </c>
+      <c r="T85">
+        <v>0.00012108503579656245</v>
+      </c>
+      <c r="U85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="V85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="W85">
+        <v>2.2203355439099513e-14</v>
+      </c>
+      <c r="X85">
+        <v>17</v>
+      </c>
+      <c r="Y85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="D86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="E86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="F86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="G86">
+        <v>3.8542302023363957e-13</v>
+      </c>
+      <c r="H86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="J86">
+        <v>1.1951602310581852e-05</v>
+      </c>
+      <c r="K86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="L86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="M86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="N86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="O86">
+        <v>0.00086285039852276033</v>
+      </c>
+      <c r="P86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="Q86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="R86">
+        <v>0.99910888119685481</v>
+      </c>
+      <c r="S86">
+        <v>1.2160917532910031e-05</v>
+      </c>
+      <c r="T86">
+        <v>4.1558840384020851e-06</v>
+      </c>
+      <c r="U86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="V86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="W86">
+        <v>2.2203563463279429e-14</v>
+      </c>
+      <c r="X86">
+        <v>17</v>
+      </c>
+      <c r="Y86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="B87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="D87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="E87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="F87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="G87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="H87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="J87">
+        <v>1.7512752134960249e-06</v>
+      </c>
+      <c r="K87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="L87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="M87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="N87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="O87">
+        <v>0.012339576776768333</v>
+      </c>
+      <c r="P87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="Q87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="R87">
+        <v>0.98765855262287983</v>
+      </c>
+      <c r="S87">
+        <v>2.1095567626937566e-09</v>
+      </c>
+      <c r="T87">
+        <v>1.1721520417891192e-07</v>
+      </c>
+      <c r="U87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="V87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="W87">
+        <v>2.2201277439225619e-14</v>
+      </c>
+      <c r="X87">
+        <v>17</v>
+      </c>
+      <c r="Y87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="B88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="D88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="E88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="F88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="G88">
+        <v>4.1143118139066752e-09</v>
+      </c>
+      <c r="H88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="J88">
+        <v>0.00017922298423475653</v>
+      </c>
+      <c r="K88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="L88">
+        <v>3.6799282456717119e-10</v>
+      </c>
+      <c r="M88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="N88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="O88">
+        <v>0.0010507656117545979</v>
+      </c>
+      <c r="P88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="Q88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="R88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="S88">
+        <v>0.98499823604838932</v>
+      </c>
+      <c r="T88">
+        <v>0.013771770872961416</v>
+      </c>
+      <c r="U88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="V88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="W88">
+        <v>2.2201707560536875e-14</v>
+      </c>
+      <c r="X88">
+        <v>18</v>
+      </c>
+      <c r="Y88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="B89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="E89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="F89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="G89">
+        <v>5.4170978612130093e-08</v>
+      </c>
+      <c r="H89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="J89">
+        <v>1.5871618503828243e-05</v>
+      </c>
+      <c r="K89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="L89">
+        <v>6.1991879246160727e-12</v>
+      </c>
+      <c r="M89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="N89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="O89">
+        <v>0.0008214446952944616</v>
+      </c>
+      <c r="P89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="Q89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="R89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="S89">
+        <v>0.99085605218798767</v>
+      </c>
+      <c r="T89">
+        <v>0.0083065773206808767</v>
+      </c>
+      <c r="U89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="V89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="W89">
+        <v>2.2201351673809703e-14</v>
+      </c>
+      <c r="X89">
+        <v>18</v>
+      </c>
+      <c r="Y89">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B90">
+        <v>1.2009858611570702e-13</v>
+      </c>
+      <c r="C90">
+        <v>1.2009858611570702e-13</v>
+      </c>
+      <c r="D90">
+        <v>1.2009858611570702e-13</v>
+      </c>
+      <c r="E90">
+        <v>1.2009858611570674e-13</v>
+      </c>
+      <c r="F90">
+        <v>1.2009858611570684e-13</v>
+      </c>
+      <c r="G90">
+        <v>1.2397928950844637e-07</v>
+      </c>
+      <c r="H90">
+        <v>1.2009858611570694e-13</v>
+      </c>
+      <c r="I90">
+        <v>1.2009858611570684e-13</v>
+      </c>
+      <c r="J90">
+        <v>0.0027340467843257263</v>
+      </c>
+      <c r="K90">
+        <v>1.2009858611570744e-13</v>
+      </c>
+      <c r="L90">
+        <v>5.5221855116696947e-09</v>
+      </c>
+      <c r="M90">
+        <v>1.2009858611570704e-13</v>
+      </c>
+      <c r="N90">
+        <v>1.2009858611570684e-13</v>
+      </c>
+      <c r="O90">
+        <v>0.00068683315658401537</v>
+      </c>
+      <c r="P90">
+        <v>1.2009858611570714e-13</v>
+      </c>
+      <c r="Q90">
+        <v>1.2009858611570694e-13</v>
+      </c>
+      <c r="R90">
+        <v>1.2009858611570714e-13</v>
+      </c>
+      <c r="S90">
+        <v>0.98914151951498397</v>
+      </c>
+      <c r="T90">
+        <v>0.0074374710407094967</v>
+      </c>
+      <c r="U90">
+        <v>1.2009858611568538e-13</v>
+      </c>
+      <c r="V90">
+        <v>1.2009858611568518e-13</v>
+      </c>
+      <c r="W90">
+        <v>1.2009858611568528e-13</v>
+      </c>
+      <c r="X90">
+        <v>18</v>
+      </c>
+      <c r="Y90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="C91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="D91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="E91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="F91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="G91">
+        <v>2.0801941677708436e-07</v>
+      </c>
+      <c r="H91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="I91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="J91">
+        <v>4.5474228563548159e-05</v>
+      </c>
+      <c r="K91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="L91">
+        <v>1.1759103839855572e-12</v>
+      </c>
+      <c r="M91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="N91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="O91">
+        <v>0.00013656237841698618</v>
+      </c>
+      <c r="P91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="Q91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="R91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="S91">
+        <v>0.99766361071745135</v>
+      </c>
+      <c r="T91">
+        <v>0.0021541446546202879</v>
+      </c>
+      <c r="U91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="V91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="W91">
+        <v>2.2203966072403842e-14</v>
+      </c>
+      <c r="X91">
+        <v>18</v>
+      </c>
+      <c r="Y91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B92">
+        <v>1.3421524982933459e-13</v>
+      </c>
+      <c r="C92">
+        <v>1.3421524982933459e-13</v>
+      </c>
+      <c r="D92">
+        <v>1.3421524982933459e-13</v>
+      </c>
+      <c r="E92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="F92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="G92">
+        <v>0.13026259948539565</v>
+      </c>
+      <c r="H92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="I92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="J92">
+        <v>0.42625228061764814</v>
+      </c>
+      <c r="K92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="L92">
+        <v>0.00013440399755451266</v>
+      </c>
+      <c r="M92">
+        <v>1.3421524982933447e-13</v>
+      </c>
+      <c r="N92">
+        <v>1.3421524982933467e-13</v>
+      </c>
+      <c r="O92">
+        <v>0.004666507595355575</v>
+      </c>
+      <c r="P92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="Q92">
+        <v>1.3421524982933447e-13</v>
+      </c>
+      <c r="R92">
+        <v>1.3421524982933457e-13</v>
+      </c>
+      <c r="S92">
+        <v>0.00042283493934436507</v>
+      </c>
+      <c r="T92">
+        <v>0.43826137336255461</v>
+      </c>
+      <c r="U92">
+        <v>1.3421524982933447e-13</v>
+      </c>
+      <c r="V92">
+        <v>1.3421524982933447e-13</v>
+      </c>
+      <c r="W92">
+        <v>1.3421524982933447e-13</v>
+      </c>
+      <c r="X92">
+        <v>19</v>
+      </c>
+      <c r="Y92">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B93">
+        <v>8.2817074854819538e-14</v>
+      </c>
+      <c r="C93">
+        <v>8.2817074854819538e-14</v>
+      </c>
+      <c r="D93">
+        <v>8.2817074854819538e-14</v>
+      </c>
+      <c r="E93">
+        <v>8.281707485481945e-14</v>
+      </c>
+      <c r="F93">
+        <v>8.2817074854819538e-14</v>
+      </c>
+      <c r="G93">
+        <v>0.036786425910446924</v>
+      </c>
+      <c r="H93">
+        <v>8.2817074854819513e-14</v>
+      </c>
+      <c r="I93">
+        <v>8.2817074854819513e-14</v>
+      </c>
+      <c r="J93">
+        <v>0.22920418674365611</v>
+      </c>
+      <c r="K93">
+        <v>8.2817074854820523e-14</v>
+      </c>
+      <c r="L93">
+        <v>1.9343424142234078e-05</v>
+      </c>
+      <c r="M93">
+        <v>8.2817074854820523e-14</v>
+      </c>
+      <c r="N93">
+        <v>8.2817074854820498e-14</v>
+      </c>
+      <c r="O93">
+        <v>0.00076281752927617004</v>
+      </c>
+      <c r="P93">
+        <v>8.2817074854820498e-14</v>
+      </c>
+      <c r="Q93">
+        <v>8.2817074854820447e-14</v>
+      </c>
+      <c r="R93">
+        <v>8.2817074854820498e-14</v>
+      </c>
+      <c r="S93">
+        <v>8.9351597099531472e-05</v>
+      </c>
+      <c r="T93">
+        <v>0.73313787479405423</v>
+      </c>
+      <c r="U93">
+        <v>8.281707485482051e-14</v>
+      </c>
+      <c r="V93">
+        <v>8.281707485482051e-14</v>
+      </c>
+      <c r="W93">
+        <v>8.281707485482051e-14</v>
+      </c>
+      <c r="X93">
+        <v>19</v>
+      </c>
+      <c r="Y93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="C94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="D94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="E94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="F94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="G94">
+        <v>0.46888327024892906</v>
+      </c>
+      <c r="H94">
+        <v>4.7627775008747064e-14</v>
+      </c>
+      <c r="I94">
+        <v>4.7627775008747064e-14</v>
+      </c>
+      <c r="J94">
+        <v>0.33806069544801248</v>
+      </c>
+      <c r="K94">
+        <v>4.7627775008747027e-14</v>
+      </c>
+      <c r="L94">
+        <v>0.0040091406476196675</v>
+      </c>
+      <c r="M94">
+        <v>4.7627775008747045e-14</v>
+      </c>
+      <c r="N94">
+        <v>4.7627775008747045e-14</v>
+      </c>
+      <c r="O94">
+        <v>0.015614491759441162</v>
+      </c>
+      <c r="P94">
+        <v>4.7627775008747045e-14</v>
+      </c>
+      <c r="Q94">
+        <v>4.7627775008747045e-14</v>
+      </c>
+      <c r="R94">
+        <v>4.7627775008747045e-14</v>
+      </c>
+      <c r="S94">
+        <v>0.0026630828746605295</v>
+      </c>
+      <c r="T94">
+        <v>0.17076931902057499</v>
+      </c>
+      <c r="U94">
+        <v>4.7627775008746806e-14</v>
+      </c>
+      <c r="V94">
+        <v>4.7627775008746806e-14</v>
+      </c>
+      <c r="W94">
+        <v>4.7627775008746806e-14</v>
+      </c>
+      <c r="X94">
+        <v>6</v>
+      </c>
+      <c r="Y94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B95">
+        <v>5.5837859117051843e-14</v>
+      </c>
+      <c r="C95">
+        <v>5.5837859117051843e-14</v>
+      </c>
+      <c r="D95">
+        <v>5.5837859117051843e-14</v>
+      </c>
+      <c r="E95">
+        <v>5.5837859117051799e-14</v>
+      </c>
+      <c r="F95">
+        <v>5.5837859117051843e-14</v>
+      </c>
+      <c r="G95">
+        <v>0.23649236142096669</v>
+      </c>
+      <c r="H95">
+        <v>5.5837859117051799e-14</v>
+      </c>
+      <c r="I95">
+        <v>5.5837859117051799e-14</v>
+      </c>
+      <c r="J95">
+        <v>0.052148167036247424</v>
+      </c>
+      <c r="K95">
+        <v>5.5837859117051843e-14</v>
+      </c>
+      <c r="L95">
+        <v>0.00053520045858892302</v>
+      </c>
+      <c r="M95">
+        <v>5.5837859117051792e-14</v>
+      </c>
+      <c r="N95">
+        <v>5.5837859117051792e-14</v>
+      </c>
+      <c r="O95">
+        <v>0.0013800580865469694</v>
+      </c>
+      <c r="P95">
+        <v>5.5837859117051792e-14</v>
+      </c>
+      <c r="Q95">
+        <v>5.5837859117051792e-14</v>
+      </c>
+      <c r="R95">
+        <v>5.5837859117051792e-14</v>
+      </c>
+      <c r="S95">
+        <v>0.000433900013608314</v>
+      </c>
+      <c r="T95">
+        <v>0.70901031298314821</v>
+      </c>
+      <c r="U95">
+        <v>5.5837859117051761e-14</v>
+      </c>
+      <c r="V95">
+        <v>5.5837859117051729e-14</v>
+      </c>
+      <c r="W95">
+        <v>5.5837859117051761e-14</v>
+      </c>
+      <c r="X95">
+        <v>19</v>
+      </c>
+      <c r="Y95">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B96">
+        <v>7.5743628138496905e-14</v>
+      </c>
+      <c r="C96">
+        <v>7.5743628138496905e-14</v>
+      </c>
+      <c r="D96">
+        <v>7.5743628138496905e-14</v>
+      </c>
+      <c r="E96">
+        <v>7.5743628138496893e-14</v>
+      </c>
+      <c r="F96">
+        <v>7.5743628138496893e-14</v>
+      </c>
+      <c r="G96">
+        <v>0.13758075224870206</v>
+      </c>
+      <c r="H96">
+        <v>7.5743628138496867e-14</v>
+      </c>
+      <c r="I96">
+        <v>7.5743628138496893e-14</v>
+      </c>
+      <c r="J96">
+        <v>0.24820081522301815</v>
+      </c>
+      <c r="K96">
+        <v>7.5743628138496893e-14</v>
+      </c>
+      <c r="L96">
+        <v>0.00036354302919479494</v>
+      </c>
+      <c r="M96">
+        <v>7.5743628138496855e-14</v>
+      </c>
+      <c r="N96">
+        <v>7.5743628138496855e-14</v>
+      </c>
+      <c r="O96">
+        <v>0.0039269406958426251</v>
+      </c>
+      <c r="P96">
+        <v>7.5743628138496855e-14</v>
+      </c>
+      <c r="Q96">
+        <v>7.5743628138496855e-14</v>
+      </c>
+      <c r="R96">
+        <v>7.5743628138496855e-14</v>
+      </c>
+      <c r="S96">
+        <v>0.00058162098935077245</v>
+      </c>
+      <c r="T96">
+        <v>0.60934632781267939</v>
+      </c>
+      <c r="U96">
+        <v>7.5743628138496388e-14</v>
+      </c>
+      <c r="V96">
+        <v>7.5743628138496388e-14</v>
+      </c>
+      <c r="W96">
+        <v>7.5743628138496388e-14</v>
+      </c>
+      <c r="X96">
+        <v>19</v>
+      </c>
+      <c r="Y96">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B97">
+        <v>5.8715575797442156e-14</v>
+      </c>
+      <c r="C97">
+        <v>5.8715575797442156e-14</v>
+      </c>
+      <c r="D97">
+        <v>5.8715575797442156e-14</v>
+      </c>
+      <c r="E97">
+        <v>5.8715575797442105e-14</v>
+      </c>
+      <c r="F97">
+        <v>5.8715575797442156e-14</v>
+      </c>
+      <c r="G97">
+        <v>0.098696371087152443</v>
+      </c>
+      <c r="H97">
+        <v>5.8715575797442105e-14</v>
+      </c>
+      <c r="I97">
+        <v>5.8715575797442156e-14</v>
+      </c>
+      <c r="J97">
+        <v>0.5113296368418071</v>
+      </c>
+      <c r="K97">
+        <v>5.8715575797442168e-14</v>
+      </c>
+      <c r="L97">
+        <v>0.0093440643245591131</v>
+      </c>
+      <c r="M97">
+        <v>5.8715575797442206e-14</v>
+      </c>
+      <c r="N97">
+        <v>5.8715575797442206e-14</v>
+      </c>
+      <c r="O97">
+        <v>0.0057546753393903083</v>
+      </c>
+      <c r="P97">
+        <v>5.8715575797442206e-14</v>
+      </c>
+      <c r="Q97">
+        <v>5.8715575797442206e-14</v>
+      </c>
+      <c r="R97">
+        <v>5.8715575797442206e-14</v>
+      </c>
+      <c r="S97">
+        <v>0.0003022069703468477</v>
+      </c>
+      <c r="T97">
+        <v>0.37457304543580427</v>
+      </c>
+      <c r="U97">
+        <v>5.871557579744179e-14</v>
+      </c>
+      <c r="V97">
+        <v>5.871557579744179e-14</v>
+      </c>
+      <c r="W97">
+        <v>5.871557579744179e-14</v>
+      </c>
+      <c r="X97">
+        <v>9</v>
+      </c>
+      <c r="Y97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="C98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="D98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="E98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="F98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="G98">
+        <v>1.2050777932695703e-06</v>
+      </c>
+      <c r="H98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="I98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="J98">
+        <v>0.0012423264414138969</v>
+      </c>
+      <c r="K98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="L98">
+        <v>1.4665363505160487e-09</v>
+      </c>
+      <c r="M98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="N98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="O98">
+        <v>0.0015612883231421047</v>
+      </c>
+      <c r="P98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="Q98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="R98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="S98">
+        <v>0.00021458873414492797</v>
+      </c>
+      <c r="T98">
+        <v>6.7369404119708561e-05</v>
+      </c>
+      <c r="U98">
+        <v>0.99691322055251663</v>
+      </c>
+      <c r="V98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="W98">
+        <v>2.2201373503843183e-14</v>
+      </c>
+      <c r="X98">
+        <v>20</v>
+      </c>
+      <c r="Y98">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="C99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="D99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="E99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="F99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="G99">
+        <v>0.00065434407087017676</v>
+      </c>
+      <c r="H99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="I99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="J99">
+        <v>1.7345332829243838e-05</v>
+      </c>
+      <c r="K99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="L99">
+        <v>7.8282012816282771e-06</v>
+      </c>
+      <c r="M99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="N99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="O99">
+        <v>0.00069581573351647154</v>
+      </c>
+      <c r="P99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="Q99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="R99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="S99">
+        <v>0.0015152284169895564</v>
+      </c>
+      <c r="T99">
+        <v>0.00094222009527286502</v>
+      </c>
+      <c r="U99">
+        <v>0.99616721814890696</v>
+      </c>
+      <c r="V99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="W99">
+        <v>2.2201561356465874e-14</v>
+      </c>
+      <c r="X99">
+        <v>20</v>
+      </c>
+      <c r="Y99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="C100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="D100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="E100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="F100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="G100">
+        <v>7.5698846065874322e-06</v>
+      </c>
+      <c r="H100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="I100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="J100">
+        <v>0.0008103071241618051</v>
+      </c>
+      <c r="K100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="L100">
+        <v>6.0948363235299886e-11</v>
+      </c>
+      <c r="M100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="N100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="O100">
+        <v>0.0023401954036707108</v>
+      </c>
+      <c r="P100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="Q100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="R100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="S100">
+        <v>0.00017180123257488935</v>
+      </c>
+      <c r="T100">
+        <v>1.7800858586755456e-05</v>
+      </c>
+      <c r="U100">
+        <v>0.99665232543511773</v>
+      </c>
+      <c r="V100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="W100">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="X100">
+        <v>20</v>
+      </c>
+      <c r="Y100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="C101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="D101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="E101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="F101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="G101">
+        <v>0.00096990721999130522</v>
+      </c>
+      <c r="H101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="I101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="J101">
+        <v>1.0639415448062734e-05</v>
+      </c>
+      <c r="K101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="L101">
+        <v>3.7255427603893146e-05</v>
+      </c>
+      <c r="M101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="N101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="O101">
+        <v>0.00038784046536762407</v>
+      </c>
+      <c r="P101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="Q101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="R101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="S101">
+        <v>0.0016031926837089283</v>
+      </c>
+      <c r="T101">
+        <v>0.0011770319250485376</v>
+      </c>
+      <c r="U101">
+        <v>0.99581413286249865</v>
+      </c>
+      <c r="V101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="W101">
+        <v>2.2201731306692892e-14</v>
+      </c>
+      <c r="X101">
+        <v>20</v>
+      </c>
+      <c r="Y101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="C102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="D102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="E102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="F102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="G102">
+        <v>7.5698846065874322e-06</v>
+      </c>
+      <c r="H102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="I102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="J102">
+        <v>0.0008103071241618051</v>
+      </c>
+      <c r="K102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="L102">
+        <v>6.0948363235299886e-11</v>
+      </c>
+      <c r="M102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="N102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="O102">
+        <v>0.0023401954036707108</v>
+      </c>
+      <c r="P102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="Q102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="R102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="S102">
+        <v>0.00017180123257488935</v>
+      </c>
+      <c r="T102">
+        <v>1.7800858586755456e-05</v>
+      </c>
+      <c r="U102">
+        <v>0.99665232543511773</v>
+      </c>
+      <c r="V102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="W102">
+        <v>2.2201252862540187e-14</v>
+      </c>
+      <c r="X102">
+        <v>20</v>
+      </c>
+      <c r="Y102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="C103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="D103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="E103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="F103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="G103">
+        <v>1.6524986365255698e-08</v>
+      </c>
+      <c r="H103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="I103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="J103">
+        <v>0.0031609008902743234</v>
+      </c>
+      <c r="K103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="L103">
+        <v>2.6593480563233641e-13</v>
+      </c>
+      <c r="M103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="N103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="O103">
+        <v>0.00069276848755770544</v>
+      </c>
+      <c r="P103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="Q103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="R103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="S103">
+        <v>0.00059118401534561283</v>
+      </c>
+      <c r="T103">
+        <v>0.0010219776135845383</v>
+      </c>
+      <c r="U103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="V103">
+        <v>0.99453315246765261</v>
+      </c>
+      <c r="W103">
+        <v>2.2202081739757343e-14</v>
+      </c>
+      <c r="X103">
+        <v>21</v>
+      </c>
+      <c r="Y103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="C104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="D104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="E104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="F104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="G104">
+        <v>9.4703210322258084e-08</v>
+      </c>
+      <c r="H104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="I104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="J104">
+        <v>0.0017031641059663425</v>
+      </c>
+      <c r="K104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="L104">
+        <v>5.4672832820057252e-14</v>
+      </c>
+      <c r="M104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="N104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="O104">
+        <v>0.0011945967546494254</v>
+      </c>
+      <c r="P104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="Q104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="R104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="S104">
+        <v>0.001555954600172925</v>
+      </c>
+      <c r="T104">
+        <v>0.00088391342107679459</v>
+      </c>
+      <c r="U104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="V104">
+        <v>0.99466227641453653</v>
+      </c>
+      <c r="W104">
+        <v>2.2202239350808559e-14</v>
+      </c>
+      <c r="X104">
+        <v>21</v>
+      </c>
+      <c r="Y104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="C105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="D105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="E105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="F105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="G105">
+        <v>2.0004386848009175e-07</v>
+      </c>
+      <c r="H105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="I105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="J105">
+        <v>0.0034244866167542827</v>
+      </c>
+      <c r="K105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="L105">
+        <v>3.8017412297800555e-14</v>
+      </c>
+      <c r="M105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="N105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="O105">
+        <v>0.0010599468296530164</v>
+      </c>
+      <c r="P105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="Q105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="R105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="S105">
+        <v>0.0011682588566894574</v>
+      </c>
+      <c r="T105">
+        <v>0.00085959490292007528</v>
+      </c>
+      <c r="U105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="V105">
+        <v>0.99348751274974356</v>
+      </c>
+      <c r="W105">
+        <v>2.2202444730174066e-14</v>
+      </c>
+      <c r="X105">
+        <v>21</v>
+      </c>
+      <c r="Y105">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="C106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="D106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="E106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="F106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="G106">
+        <v>4.7331407762041131e-07</v>
+      </c>
+      <c r="H106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="I106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="J106">
+        <v>1.5830249182765526e-05</v>
+      </c>
+      <c r="K106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="L106">
+        <v>1.5087105670199017e-12</v>
+      </c>
+      <c r="M106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="N106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="O106">
+        <v>3.0230898404633216e-05</v>
+      </c>
+      <c r="P106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="Q106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="R106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="S106">
+        <v>1.2380936769089184e-06</v>
+      </c>
+      <c r="T106">
+        <v>0.00019194644496064545</v>
+      </c>
+      <c r="U106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="V106">
+        <v>2.2204218717261842e-14</v>
+      </c>
+      <c r="W106">
+        <v>0.99976028099785552</v>
+      </c>
+      <c r="X106">
+        <v>22</v>
+      </c>
+      <c r="Y106">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="C107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="D107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="E107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="F107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="G107">
+        <v>1.8076677100565255e-07</v>
+      </c>
+      <c r="H107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="I107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="J107">
+        <v>5.2878050185078909e-05</v>
+      </c>
+      <c r="K107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="L107">
+        <v>5.692353440349653e-12</v>
+      </c>
+      <c r="M107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="N107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="O107">
+        <v>2.1051889131857338e-05</v>
+      </c>
+      <c r="P107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="Q107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="R107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="S107">
+        <v>1.1654312518871911e-06</v>
+      </c>
+      <c r="T107">
+        <v>0.00010514064500575893</v>
+      </c>
+      <c r="U107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="V107">
+        <v>2.2204278496200627e-14</v>
+      </c>
+      <c r="W107">
+        <v>0.99981958321162889</v>
+      </c>
+      <c r="X107">
+        <v>22</v>
+      </c>
+      <c r="Y107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="B108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="C108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="D108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="E108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="F108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="G108">
+        <v>2.0612603337166391e-06</v>
+      </c>
+      <c r="H108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="I108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="J108">
+        <v>4.821027731160511e-06</v>
+      </c>
+      <c r="K108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="L108">
+        <v>5.0322730943770868e-12</v>
+      </c>
+      <c r="M108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="N108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="O108">
+        <v>1.9214286020714325e-05</v>
+      </c>
+      <c r="P108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="Q108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="R108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="S108">
+        <v>4.8457119607699667e-07</v>
+      </c>
+      <c r="T108">
+        <v>0.0001221089774721655</v>
+      </c>
+      <c r="U108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="V108">
+        <v>2.2204310486529603e-14</v>
+      </c>
+      <c r="W108">
+        <v>0.99985130987188076</v>
+      </c>
+      <c r="X108">
+        <v>22</v>
+      </c>
+      <c r="Y108">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="C109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="D109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="E109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="F109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="G109">
+        <v>5.6073737871824778e-07</v>
+      </c>
+      <c r="H109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="I109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="J109">
+        <v>1.4186018971044312e-05</v>
+      </c>
+      <c r="K109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="L109">
+        <v>2.8887558442709657e-11</v>
+      </c>
+      <c r="M109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="N109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="O109">
+        <v>2.4958393490088543e-05</v>
+      </c>
+      <c r="P109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="Q109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="R109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="S109">
+        <v>1.5029452498308821e-06</v>
+      </c>
+      <c r="T109">
+        <v>0.0002003987410712885</v>
+      </c>
+      <c r="U109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="V109">
+        <v>2.2204216814566081e-14</v>
+      </c>
+      <c r="W109">
+        <v>0.99975839313461834</v>
+      </c>
+      <c r="X109">
+        <v>22</v>
+      </c>
+      <c r="Y109">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>